--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3082951030414023</v>
+        <v>0.3082951030415302</v>
       </c>
       <c r="D2">
-        <v>0.9195239707106566</v>
+        <v>0.9195239707105145</v>
       </c>
       <c r="E2">
-        <v>0.2544280461265274</v>
+        <v>0.2544280461265913</v>
       </c>
       <c r="F2">
-        <v>19.35913821939874</v>
+        <v>19.3591382193984</v>
       </c>
       <c r="G2">
-        <v>16.92494358325359</v>
+        <v>16.92494358325331</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5639235505673952</v>
+        <v>0.5639235505673312</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0839360405594114</v>
+        <v>0.083936040559351</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.241162674674726</v>
+        <v>0.2411626746747544</v>
       </c>
       <c r="D3">
-        <v>0.712556274537917</v>
+        <v>0.7125562745381444</v>
       </c>
       <c r="E3">
-        <v>0.1987681896328226</v>
+        <v>0.198768189632851</v>
       </c>
       <c r="F3">
-        <v>15.14238385791674</v>
+        <v>15.14238385791668</v>
       </c>
       <c r="G3">
-        <v>13.22811841168647</v>
+        <v>13.22811841168644</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4387560427839858</v>
+        <v>0.4387560427840356</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06554807853255795</v>
+        <v>0.06554807853260058</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.208265823178948</v>
+        <v>0.2082658231779675</v>
       </c>
       <c r="D4">
-        <v>0.6120507385435019</v>
+        <v>0.6120507385436724</v>
       </c>
       <c r="E4">
         <v>0.171707317313782</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3779218091951861</v>
+        <v>0.3779218091951364</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05664822206047759</v>
+        <v>0.05664822206048115</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1960558873857821</v>
+        <v>0.1960558873858105</v>
       </c>
       <c r="D5">
-        <v>0.5748700818432724</v>
+        <v>0.5748700818428745</v>
       </c>
       <c r="E5">
-        <v>0.1616991706398814</v>
+        <v>0.161699170639892</v>
       </c>
       <c r="F5">
-        <v>12.3107382921761</v>
+        <v>12.31073829217598</v>
       </c>
       <c r="G5">
-        <v>10.7472863196449</v>
+        <v>10.74728631964479</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3554186673368349</v>
+        <v>0.3554186673368207</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05336340658432803</v>
+        <v>0.05336340658431737</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1940856205992247</v>
+        <v>0.1940856205992816</v>
       </c>
       <c r="D6">
-        <v>0.5688759650439579</v>
+        <v>0.5688759650441853</v>
       </c>
       <c r="E6">
-        <v>0.160086031685136</v>
+        <v>0.160086031685065</v>
       </c>
       <c r="F6">
-        <v>12.18707190086889</v>
+        <v>12.18707190086866</v>
       </c>
       <c r="G6">
-        <v>10.63896524929766</v>
+        <v>10.63896524929763</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3517911406689365</v>
+        <v>0.3517911406689151</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05283429552523344</v>
+        <v>0.0528342955252441</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2080970403127935</v>
+        <v>0.2080970403117988</v>
       </c>
       <c r="D7">
-        <v>0.6115363555109923</v>
+        <v>0.6115363555112481</v>
       </c>
       <c r="E7">
-        <v>0.171568837913199</v>
+        <v>0.1715688379131386</v>
       </c>
       <c r="F7">
-        <v>13.06654911373369</v>
+        <v>13.06654911373363</v>
       </c>
       <c r="G7">
-        <v>11.40935190110287</v>
+        <v>11.40935190110275</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3776104662385436</v>
+        <v>0.3776104662385151</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05660274624414185</v>
+        <v>0.05660274624414718</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D8">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E8">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F8">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G8">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D9">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E9">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F9">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G9">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D10">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E10">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F10">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G10">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D11">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E11">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F11">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G11">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D12">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E12">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F12">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G12">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D13">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E13">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F13">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G13">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D14">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E14">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F14">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G14">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D15">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E15">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F15">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G15">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D16">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E16">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F16">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G16">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D17">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E17">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F17">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G17">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D18">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E18">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F18">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G18">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D19">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E19">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F19">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G19">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D20">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E20">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F20">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G20">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D21">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E21">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F21">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G21">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D22">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E22">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F22">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G22">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D23">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E23">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F23">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G23">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D24">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E24">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F24">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G24">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2825733969462192</v>
+        <v>0.282573396946205</v>
       </c>
       <c r="D25">
-        <v>0.8398892059663865</v>
+        <v>0.8398892059667844</v>
       </c>
       <c r="E25">
-        <v>0.2330316387766302</v>
+        <v>0.2330316387766231</v>
       </c>
       <c r="F25">
-        <v>17.74305698736811</v>
+        <v>17.74305698736816</v>
       </c>
       <c r="G25">
-        <v>15.50772083425906</v>
+        <v>15.50772083425917</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5157919596909011</v>
+        <v>0.5157919596909579</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.07685422681579368</v>
+        <v>0.07685422681585052</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3082951030415302</v>
+        <v>0.3082951030414023</v>
       </c>
       <c r="D2">
-        <v>0.9195239707105145</v>
+        <v>0.9195239707106566</v>
       </c>
       <c r="E2">
-        <v>0.2544280461265913</v>
+        <v>0.2544280461265274</v>
       </c>
       <c r="F2">
-        <v>19.3591382193984</v>
+        <v>19.35913821939874</v>
       </c>
       <c r="G2">
-        <v>16.92494358325331</v>
+        <v>16.92494358325359</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5639235505673312</v>
+        <v>0.5639235505673952</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.083936040559351</v>
+        <v>0.0839360405594114</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2411626746747544</v>
+        <v>0.241162674674726</v>
       </c>
       <c r="D3">
-        <v>0.7125562745381444</v>
+        <v>0.712556274537917</v>
       </c>
       <c r="E3">
-        <v>0.198768189632851</v>
+        <v>0.1987681896328226</v>
       </c>
       <c r="F3">
-        <v>15.14238385791668</v>
+        <v>15.14238385791674</v>
       </c>
       <c r="G3">
-        <v>13.22811841168644</v>
+        <v>13.22811841168647</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4387560427840356</v>
+        <v>0.4387560427839858</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06554807853260058</v>
+        <v>0.06554807853255795</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,10 +491,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2082658231779675</v>
+        <v>0.208265823178948</v>
       </c>
       <c r="D4">
-        <v>0.6120507385436724</v>
+        <v>0.6120507385435019</v>
       </c>
       <c r="E4">
         <v>0.171707317313782</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3779218091951364</v>
+        <v>0.3779218091951861</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05664822206048115</v>
+        <v>0.05664822206047759</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1960558873858105</v>
+        <v>0.1960558873857821</v>
       </c>
       <c r="D5">
-        <v>0.5748700818428745</v>
+        <v>0.5748700818432724</v>
       </c>
       <c r="E5">
-        <v>0.161699170639892</v>
+        <v>0.1616991706398814</v>
       </c>
       <c r="F5">
-        <v>12.31073829217598</v>
+        <v>12.3107382921761</v>
       </c>
       <c r="G5">
-        <v>10.74728631964479</v>
+        <v>10.7472863196449</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3554186673368207</v>
+        <v>0.3554186673368349</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05336340658431737</v>
+        <v>0.05336340658432803</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1940856205992816</v>
+        <v>0.1940856205992247</v>
       </c>
       <c r="D6">
-        <v>0.5688759650441853</v>
+        <v>0.5688759650439579</v>
       </c>
       <c r="E6">
-        <v>0.160086031685065</v>
+        <v>0.160086031685136</v>
       </c>
       <c r="F6">
-        <v>12.18707190086866</v>
+        <v>12.18707190086889</v>
       </c>
       <c r="G6">
-        <v>10.63896524929763</v>
+        <v>10.63896524929766</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3517911406689151</v>
+        <v>0.3517911406689365</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0528342955252441</v>
+        <v>0.05283429552523344</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2080970403117988</v>
+        <v>0.2080970403127935</v>
       </c>
       <c r="D7">
-        <v>0.6115363555112481</v>
+        <v>0.6115363555109923</v>
       </c>
       <c r="E7">
-        <v>0.1715688379131386</v>
+        <v>0.171568837913199</v>
       </c>
       <c r="F7">
-        <v>13.06654911373363</v>
+        <v>13.06654911373369</v>
       </c>
       <c r="G7">
-        <v>11.40935190110275</v>
+        <v>11.40935190110287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3776104662385151</v>
+        <v>0.3776104662385436</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05660274624414718</v>
+        <v>0.05660274624414185</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D8">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E8">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F8">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G8">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D9">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E9">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F9">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G9">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D10">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E10">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F10">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G10">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D11">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E11">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F11">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G11">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D12">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E12">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F12">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G12">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D13">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E13">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F13">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G13">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -871,31 +871,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D14">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E14">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F14">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G14">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D15">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E15">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F15">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G15">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D16">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E16">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F16">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G16">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D17">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E17">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F17">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G17">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D18">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E18">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F18">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G18">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D19">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E19">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F19">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G19">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D20">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E20">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F20">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G20">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D21">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E21">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F21">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G21">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D22">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E22">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F22">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G22">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D23">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E23">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F23">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G23">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D24">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E24">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F24">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G24">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.282573396946205</v>
+        <v>0.2825733969462192</v>
       </c>
       <c r="D25">
-        <v>0.8398892059667844</v>
+        <v>0.8398892059663865</v>
       </c>
       <c r="E25">
-        <v>0.2330316387766231</v>
+        <v>0.2330316387766302</v>
       </c>
       <c r="F25">
-        <v>17.74305698736816</v>
+        <v>17.74305698736811</v>
       </c>
       <c r="G25">
-        <v>15.50772083425917</v>
+        <v>15.50772083425906</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5157919596909579</v>
+        <v>0.5157919596909011</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.07685422681585052</v>
+        <v>0.07685422681579368</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3082951030414023</v>
+        <v>0.3077413683524526</v>
       </c>
       <c r="D2">
-        <v>0.9195239707106566</v>
+        <v>0.9142467308494986</v>
       </c>
       <c r="E2">
-        <v>0.2544280461265274</v>
+        <v>0.2541238257147924</v>
       </c>
       <c r="F2">
-        <v>19.35913821939874</v>
+        <v>19.28022784881966</v>
       </c>
       <c r="G2">
-        <v>16.92494358325359</v>
+        <v>5.67863346156031</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.16511960536468</v>
       </c>
       <c r="I2">
-        <v>0.5639235505673952</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5621790882747391</v>
       </c>
       <c r="K2">
-        <v>0.0839360405594114</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.08386330511149964</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.241162674674726</v>
+        <v>0.2409188882427173</v>
       </c>
       <c r="D3">
-        <v>0.712556274537917</v>
+        <v>0.7090493942299929</v>
       </c>
       <c r="E3">
-        <v>0.1987681896328226</v>
+        <v>0.1986902632751253</v>
       </c>
       <c r="F3">
-        <v>15.14238385791674</v>
+        <v>15.09256622049946</v>
       </c>
       <c r="G3">
-        <v>13.22811841168647</v>
+        <v>4.436844663991593</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.739251827308209</v>
       </c>
       <c r="I3">
-        <v>0.4387560427839858</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4377571222760466</v>
       </c>
       <c r="K3">
-        <v>0.06554807853255795</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.06554452526049914</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.208265823178948</v>
+        <v>0.2081116977223019</v>
       </c>
       <c r="D4">
-        <v>0.6120507385435019</v>
+        <v>0.6092074261533469</v>
       </c>
       <c r="E4">
-        <v>0.171707317313782</v>
+        <v>0.1716871301711684</v>
       </c>
       <c r="F4">
-        <v>13.07714385419217</v>
+        <v>13.03767408872062</v>
       </c>
       <c r="G4">
-        <v>11.41863306259546</v>
+        <v>3.827241185402869</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.550232717230955</v>
       </c>
       <c r="I4">
-        <v>0.3779218091951861</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3771671877801097</v>
       </c>
       <c r="K4">
-        <v>0.05664822206047759</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.05666074216236261</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1960558873857821</v>
+        <v>0.1959281009895335</v>
       </c>
       <c r="D5">
-        <v>0.5748700818432724</v>
+        <v>0.572250539073508</v>
       </c>
       <c r="E5">
-        <v>0.1616991706398814</v>
+        <v>0.1616945354781478</v>
       </c>
       <c r="F5">
-        <v>12.3107382921761</v>
+        <v>12.27467431059875</v>
       </c>
       <c r="G5">
-        <v>10.7472863196449</v>
+        <v>3.600810060721614</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.108968285031892</v>
       </c>
       <c r="I5">
-        <v>0.3554186673368349</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3547413285251508</v>
       </c>
       <c r="K5">
-        <v>0.05336340658432803</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.05337993150085474</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1940856205992247</v>
+        <v>0.1939617803973164</v>
       </c>
       <c r="D6">
-        <v>0.5688759650439579</v>
+        <v>0.5662915494278025</v>
       </c>
       <c r="E6">
-        <v>0.160086031685136</v>
+        <v>0.160083649504891</v>
       </c>
       <c r="F6">
-        <v>12.18707190086889</v>
+        <v>12.15153845975141</v>
       </c>
       <c r="G6">
-        <v>10.63896524929766</v>
+        <v>3.564262675656011</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.03776714665895</v>
       </c>
       <c r="I6">
-        <v>0.3517911406689365</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3511256880112725</v>
       </c>
       <c r="K6">
-        <v>0.05283429552523344</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.0528513813090008</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2080970403127935</v>
+        <v>0.2079433019953996</v>
       </c>
       <c r="D7">
-        <v>0.6115363555109923</v>
+        <v>0.6086962108940952</v>
       </c>
       <c r="E7">
-        <v>0.171568837913199</v>
+        <v>0.1715488852200835</v>
       </c>
       <c r="F7">
-        <v>13.06654911373369</v>
+        <v>13.027127871034</v>
       </c>
       <c r="G7">
-        <v>11.40935190110287</v>
+        <v>3.824111788266805</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.544132686198395</v>
       </c>
       <c r="I7">
-        <v>0.3776104662385436</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3768569574880303</v>
       </c>
       <c r="K7">
-        <v>0.05660274624414185</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.05661532818889548</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D8">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E8">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F8">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G8">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I8">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K8">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D9">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E9">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F9">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G9">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I9">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K9">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D10">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E10">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F10">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G10">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I10">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K10">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D11">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E11">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F11">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G11">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I11">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K11">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D12">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E12">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F12">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G12">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I12">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K12">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D13">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E13">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F13">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G13">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I13">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K13">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D14">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E14">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F14">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G14">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I14">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K14">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D15">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E15">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F15">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G15">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I15">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K15">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D16">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E16">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F16">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G16">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I16">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K16">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D17">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E17">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F17">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G17">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I17">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K17">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D18">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E18">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F18">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G18">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I18">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K18">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D19">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E19">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F19">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G19">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I19">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K19">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D20">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E20">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F20">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G20">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I20">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K20">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D21">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E21">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F21">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G21">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I21">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K21">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D22">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E22">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F22">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G22">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I22">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K22">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D23">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E23">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F23">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G23">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I23">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K23">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D24">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E24">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F24">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G24">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I24">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K24">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2825733969462192</v>
+        <v>0.2821646210923205</v>
       </c>
       <c r="D25">
-        <v>0.8398892059663865</v>
+        <v>0.8353765572189218</v>
       </c>
       <c r="E25">
-        <v>0.2330316387766302</v>
+        <v>0.2328365954478215</v>
       </c>
       <c r="F25">
-        <v>17.74305698736811</v>
+        <v>17.67694118355422</v>
       </c>
       <c r="G25">
-        <v>15.50772083425906</v>
+        <v>5.203244900010134</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.23590932724954</v>
       </c>
       <c r="I25">
-        <v>0.5157919596909011</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5143843210725478</v>
       </c>
       <c r="K25">
-        <v>0.07685422681579368</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.07681555573940102</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1499235879805241</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09407423673688697</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02301903018198548</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.785203710799919</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0008827881413497053</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2129548850162308</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.640394713871331</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.01753936654592536</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6844439834088618</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1399758405936495</v>
+      </c>
+      <c r="D3">
+        <v>0.08352796370110838</v>
+      </c>
+      <c r="E3">
+        <v>0.02316039588012142</v>
+      </c>
+      <c r="F3">
+        <v>7.171059956415007</v>
+      </c>
+      <c r="G3">
+        <v>0.000895357641943941</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.2028611789911139</v>
+      </c>
+      <c r="K3">
+        <v>3.23521396399201</v>
+      </c>
+      <c r="L3">
+        <v>0.01703711569486188</v>
+      </c>
+      <c r="M3">
+        <v>0.6175002683390005</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1341628129315211</v>
+      </c>
+      <c r="D4">
+        <v>0.07721308812066496</v>
+      </c>
+      <c r="E4">
+        <v>0.02327629365645389</v>
+      </c>
+      <c r="F4">
+        <v>6.806273970003872</v>
+      </c>
+      <c r="G4">
+        <v>0.0009032382307716931</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.1969243819046653</v>
+      </c>
+      <c r="K4">
+        <v>2.995905132640246</v>
+      </c>
+      <c r="L4">
+        <v>0.0167389101840687</v>
+      </c>
+      <c r="M4">
+        <v>0.5781503141797728</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1318615708754862</v>
+      </c>
+      <c r="D5">
+        <v>0.07467310633602864</v>
+      </c>
+      <c r="E5">
+        <v>0.02333066887854685</v>
+      </c>
+      <c r="F5">
+        <v>6.660331169461955</v>
+      </c>
+      <c r="G5">
+        <v>0.0009064942520450479</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.1945637176699577</v>
+      </c>
+      <c r="K5">
+        <v>2.900503663906306</v>
+      </c>
+      <c r="L5">
+        <v>0.01661959045444128</v>
+      </c>
+      <c r="M5">
+        <v>0.5625110798342803</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1314833567094809</v>
+      </c>
+      <c r="D6">
+        <v>0.07425316959820094</v>
+      </c>
+      <c r="E6">
+        <v>0.02334012480982128</v>
+      </c>
+      <c r="F6">
+        <v>6.636250744611544</v>
+      </c>
+      <c r="G6">
+        <v>0.0009070377070005858</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.1941750827045965</v>
+      </c>
+      <c r="K6">
+        <v>2.884783138111629</v>
+      </c>
+      <c r="L6">
+        <v>0.01659990075038742</v>
+      </c>
+      <c r="M6">
+        <v>0.5599369086206281</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.1341315119609447</v>
+      </c>
+      <c r="D7">
+        <v>0.07717870659826787</v>
+      </c>
+      <c r="E7">
+        <v>0.02327699825772989</v>
+      </c>
+      <c r="F7">
+        <v>6.804295236743741</v>
+      </c>
+      <c r="G7">
+        <v>0.0009032819573662894</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.1968923164328302</v>
+      </c>
+      <c r="K7">
+        <v>2.994610263184597</v>
+      </c>
+      <c r="L7">
+        <v>0.01673729252717493</v>
+      </c>
+      <c r="M7">
+        <v>0.5779378494766405</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1464282203439211</v>
+      </c>
+      <c r="D8">
+        <v>0.09040009976489216</v>
+      </c>
+      <c r="E8">
+        <v>0.02306162407751167</v>
+      </c>
+      <c r="F8">
+        <v>7.570650376973276</v>
+      </c>
+      <c r="G8">
+        <v>0.0008870906314178887</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.2094160301883434</v>
+      </c>
+      <c r="K8">
+        <v>3.498553919572885</v>
+      </c>
+      <c r="L8">
+        <v>0.01736384910254074</v>
+      </c>
+      <c r="M8">
+        <v>0.6609691956101713</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.1732209815020695</v>
+      </c>
+      <c r="D9">
+        <v>0.1179626181455546</v>
+      </c>
+      <c r="E9">
+        <v>0.02287911712774715</v>
+      </c>
+      <c r="F9">
+        <v>9.190824607551718</v>
+      </c>
+      <c r="G9">
+        <v>0.0008564431602510351</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.2364025990769534</v>
+      </c>
+      <c r="K9">
+        <v>4.575660471342189</v>
+      </c>
+      <c r="L9">
+        <v>0.01869195808641066</v>
+      </c>
+      <c r="M9">
+        <v>0.8400389205669256</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.1950923206694029</v>
+      </c>
+      <c r="D10">
+        <v>0.1397998696351692</v>
+      </c>
+      <c r="E10">
+        <v>0.02290600547633126</v>
+      </c>
+      <c r="F10">
+        <v>10.48492870972166</v>
+      </c>
+      <c r="G10">
+        <v>0.0008342925522469697</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.2582940358856121</v>
+      </c>
+      <c r="K10">
+        <v>5.443731903707203</v>
+      </c>
+      <c r="L10">
+        <v>0.01975918136092147</v>
+      </c>
+      <c r="M10">
+        <v>0.9853362109850607</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2056692772783464</v>
+      </c>
+      <c r="D11">
+        <v>0.1502416059758218</v>
+      </c>
+      <c r="E11">
+        <v>0.02295728239361772</v>
+      </c>
+      <c r="F11">
+        <v>11.1050409722078</v>
+      </c>
+      <c r="G11">
+        <v>0.0008242111172873047</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.268861956131758</v>
+      </c>
+      <c r="K11">
+        <v>5.861560774755219</v>
+      </c>
+      <c r="L11">
+        <v>0.02027318282419088</v>
+      </c>
+      <c r="M11">
+        <v>1.055481457564618</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.2097803434752592</v>
+      </c>
+      <c r="D12">
+        <v>0.1542854041074406</v>
+      </c>
+      <c r="E12">
+        <v>0.02298273443299514</v>
+      </c>
+      <c r="F12">
+        <v>11.34528755548001</v>
+      </c>
+      <c r="G12">
+        <v>0.000820384230663202</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.2729678540809886</v>
+      </c>
+      <c r="K12">
+        <v>6.023727283547998</v>
+      </c>
+      <c r="L12">
+        <v>0.02047282174429554</v>
+      </c>
+      <c r="M12">
+        <v>1.082735642567762</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.2088899665561996</v>
+      </c>
+      <c r="D13">
+        <v>0.1534102075360977</v>
+      </c>
+      <c r="E13">
+        <v>0.02297697694848289</v>
+      </c>
+      <c r="F13">
+        <v>11.29328865245662</v>
+      </c>
+      <c r="G13">
+        <v>0.0008212089849354497</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.2720786521921497</v>
+      </c>
+      <c r="K13">
+        <v>5.988614773873735</v>
+      </c>
+      <c r="L13">
+        <v>0.0204295873887439</v>
+      </c>
+      <c r="M13">
+        <v>1.076833226470164</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.2060052770736576</v>
+      </c>
+      <c r="D14">
+        <v>0.1505723858961119</v>
+      </c>
+      <c r="E14">
+        <v>0.02295925271807953</v>
+      </c>
+      <c r="F14">
+        <v>11.12469170307651</v>
+      </c>
+      <c r="G14">
+        <v>0.0008238965175124361</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.2691975601364192</v>
+      </c>
+      <c r="K14">
+        <v>5.874819121872008</v>
+      </c>
+      <c r="L14">
+        <v>0.02028950128400098</v>
+      </c>
+      <c r="M14">
+        <v>1.057709109074523</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.2042526118170258</v>
+      </c>
+      <c r="D15">
+        <v>0.1488463756674037</v>
+      </c>
+      <c r="E15">
+        <v>0.02294919580153731</v>
+      </c>
+      <c r="F15">
+        <v>11.0221573123282</v>
+      </c>
+      <c r="G15">
+        <v>0.0008255412211388702</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.2674468996884869</v>
+      </c>
+      <c r="K15">
+        <v>5.805650899112493</v>
+      </c>
+      <c r="L15">
+        <v>0.02020437507664496</v>
+      </c>
+      <c r="M15">
+        <v>1.04608872880209</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.1944149854534345</v>
+      </c>
+      <c r="D16">
+        <v>0.1391290547062454</v>
+      </c>
+      <c r="E16">
+        <v>0.02290347426093131</v>
+      </c>
+      <c r="F16">
+        <v>10.44510876788809</v>
+      </c>
+      <c r="G16">
+        <v>0.0008349506015758509</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.2576169957954306</v>
+      </c>
+      <c r="K16">
+        <v>5.416939769057933</v>
+      </c>
+      <c r="L16">
+        <v>0.01972623667089124</v>
+      </c>
+      <c r="M16">
+        <v>0.9808424161278708</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.1885508559993951</v>
+      </c>
+      <c r="D17">
+        <v>0.1333088039862105</v>
+      </c>
+      <c r="E17">
+        <v>0.02288570135646406</v>
+      </c>
+      <c r="F17">
+        <v>10.09974854622084</v>
+      </c>
+      <c r="G17">
+        <v>0.0008407160669672287</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.2517535143084118</v>
+      </c>
+      <c r="K17">
+        <v>5.184774901297772</v>
+      </c>
+      <c r="L17">
+        <v>0.01944080246190794</v>
+      </c>
+      <c r="M17">
+        <v>0.9419244814482752</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.185235952245705</v>
+      </c>
+      <c r="D18">
+        <v>0.1300077874504382</v>
+      </c>
+      <c r="E18">
+        <v>0.02287912476673259</v>
+      </c>
+      <c r="F18">
+        <v>9.904000672635391</v>
+      </c>
+      <c r="G18">
+        <v>0.0008440323319865486</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.2484372116565865</v>
+      </c>
+      <c r="K18">
+        <v>5.05335384260195</v>
+      </c>
+      <c r="L18">
+        <v>0.01927924939723091</v>
+      </c>
+      <c r="M18">
+        <v>0.9199133587898913</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.1841231136592825</v>
+      </c>
+      <c r="D19">
+        <v>0.1288976705694438</v>
+      </c>
+      <c r="E19">
+        <v>0.02287751266053206</v>
+      </c>
+      <c r="F19">
+        <v>9.838195940425095</v>
+      </c>
+      <c r="G19">
+        <v>0.0008451554190337771</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.2473235713677937</v>
+      </c>
+      <c r="K19">
+        <v>5.009202307666783</v>
+      </c>
+      <c r="L19">
+        <v>0.01922497595605321</v>
+      </c>
+      <c r="M19">
+        <v>0.9125219036819345</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.1891689973543009</v>
+      </c>
+      <c r="D20">
+        <v>0.1339234416483919</v>
+      </c>
+      <c r="E20">
+        <v>0.02288721317533771</v>
+      </c>
+      <c r="F20">
+        <v>10.13620716151897</v>
+      </c>
+      <c r="G20">
+        <v>0.0008401023674942443</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.2523717642843835</v>
+      </c>
+      <c r="K20">
+        <v>5.209266168619479</v>
+      </c>
+      <c r="L20">
+        <v>0.01947091020318759</v>
+      </c>
+      <c r="M20">
+        <v>0.9460279846119732</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.2068495701620208</v>
+      </c>
+      <c r="D21">
+        <v>0.1514033381080253</v>
+      </c>
+      <c r="E21">
+        <v>0.02296429123622978</v>
+      </c>
+      <c r="F21">
+        <v>11.17405744286174</v>
+      </c>
+      <c r="G21">
+        <v>0.000823107451907658</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.2700408361822184</v>
+      </c>
+      <c r="K21">
+        <v>5.908130854815568</v>
+      </c>
+      <c r="L21">
+        <v>0.02033050427005278</v>
+      </c>
+      <c r="M21">
+        <v>1.063306573646678</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.2190310424685435</v>
+      </c>
+      <c r="D22">
+        <v>0.1633607891563145</v>
+      </c>
+      <c r="E22">
+        <v>0.02305009618953946</v>
+      </c>
+      <c r="F22">
+        <v>11.88451880912288</v>
+      </c>
+      <c r="G22">
+        <v>0.000811941058237696</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.2822051525109543</v>
+      </c>
+      <c r="K22">
+        <v>6.388264474608491</v>
+      </c>
+      <c r="L22">
+        <v>0.02092198751633667</v>
+      </c>
+      <c r="M22">
+        <v>1.14405411506128</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.212466314722036</v>
+      </c>
+      <c r="D23">
+        <v>0.1569236630742807</v>
+      </c>
+      <c r="E23">
+        <v>0.02300089821761198</v>
+      </c>
+      <c r="F23">
+        <v>11.50204238433878</v>
+      </c>
+      <c r="G23">
+        <v>0.0008179094622403673</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.2756501281200983</v>
+      </c>
+      <c r="K23">
+        <v>6.129620305255457</v>
+      </c>
+      <c r="L23">
+        <v>0.02060323849524792</v>
+      </c>
+      <c r="M23">
+        <v>1.100540479539106</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.188889360910224</v>
+      </c>
+      <c r="D24">
+        <v>0.1336454246256267</v>
+      </c>
+      <c r="E24">
+        <v>0.02288651837077271</v>
+      </c>
+      <c r="F24">
+        <v>10.1197155527681</v>
+      </c>
+      <c r="G24">
+        <v>0.0008403798153058251</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.2520920843133823</v>
+      </c>
+      <c r="K24">
+        <v>5.198187317065504</v>
+      </c>
+      <c r="L24">
+        <v>0.01945729062496326</v>
+      </c>
+      <c r="M24">
+        <v>0.9441716671539524</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.1656339884519156</v>
+      </c>
+      <c r="D25">
+        <v>0.1102757125982095</v>
+      </c>
+      <c r="E25">
+        <v>0.02290143083723883</v>
+      </c>
+      <c r="F25">
+        <v>8.736930508526001</v>
+      </c>
+      <c r="G25">
+        <v>0.0008646448595245729</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.2287871462653257</v>
+      </c>
+      <c r="K25">
+        <v>4.27264906822478</v>
+      </c>
+      <c r="L25">
+        <v>0.0183191443987436</v>
+      </c>
+      <c r="M25">
+        <v>0.7894977468804072</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1499235879805241</v>
+        <v>0.2952119588580189</v>
       </c>
       <c r="D2">
-        <v>0.09407423673688697</v>
+        <v>0.03072992620381854</v>
       </c>
       <c r="E2">
-        <v>0.02301903018198548</v>
+        <v>0.0830438487301226</v>
       </c>
       <c r="F2">
-        <v>7.785203710799919</v>
+        <v>8.821586488591208</v>
       </c>
       <c r="G2">
-        <v>0.0008827881413497053</v>
+        <v>0.002784564261579222</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2129548850162308</v>
+        <v>0.3517665580556226</v>
       </c>
       <c r="K2">
-        <v>3.640394713871331</v>
+        <v>4.900726431097041</v>
       </c>
       <c r="L2">
-        <v>0.01753936654592536</v>
+        <v>0.05085815343876732</v>
       </c>
       <c r="M2">
-        <v>0.6844439834088618</v>
+        <v>1.135977361395618</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1399758405936495</v>
+        <v>0.2948735464759125</v>
       </c>
       <c r="D3">
-        <v>0.08352796370110838</v>
+        <v>0.02766620663722819</v>
       </c>
       <c r="E3">
-        <v>0.02316039588012142</v>
+        <v>0.08357188095053836</v>
       </c>
       <c r="F3">
-        <v>7.171059956415007</v>
+        <v>8.677735975671226</v>
       </c>
       <c r="G3">
-        <v>0.000895357641943941</v>
+        <v>0.0027919279193664</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2028611789911139</v>
+        <v>0.3499071365648376</v>
       </c>
       <c r="K3">
-        <v>3.23521396399201</v>
+        <v>4.858164982595042</v>
       </c>
       <c r="L3">
-        <v>0.01703711569486188</v>
+        <v>0.0507789119186004</v>
       </c>
       <c r="M3">
-        <v>0.6175002683390005</v>
+        <v>1.132013603506017</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1341628129315211</v>
+        <v>0.2948059669456597</v>
       </c>
       <c r="D4">
-        <v>0.07721308812066496</v>
+        <v>0.0257755073485626</v>
       </c>
       <c r="E4">
-        <v>0.02327629365645389</v>
+        <v>0.08392254424038548</v>
       </c>
       <c r="F4">
-        <v>6.806273970003872</v>
+        <v>8.59162570014243</v>
       </c>
       <c r="G4">
-        <v>0.0009032382307716931</v>
+        <v>0.002796681576330024</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1969243819046653</v>
+        <v>0.3488366179803464</v>
       </c>
       <c r="K4">
-        <v>2.995905132640246</v>
+        <v>4.835765742258872</v>
       </c>
       <c r="L4">
-        <v>0.0167389101840687</v>
+        <v>0.05073243591338894</v>
       </c>
       <c r="M4">
-        <v>0.5781503141797728</v>
+        <v>1.130365205640459</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1318615708754862</v>
+        <v>0.2948136660047709</v>
       </c>
       <c r="D5">
-        <v>0.07467310633602864</v>
+        <v>0.0250024329329861</v>
       </c>
       <c r="E5">
-        <v>0.02333066887854685</v>
+        <v>0.08407211073835352</v>
       </c>
       <c r="F5">
-        <v>6.660331169461955</v>
+        <v>8.557084902218662</v>
       </c>
       <c r="G5">
-        <v>0.0009064942520450479</v>
+        <v>0.002798677380747511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1945637176699577</v>
+        <v>0.3484181559830475</v>
       </c>
       <c r="K5">
-        <v>2.900503663906306</v>
+        <v>4.827574935387759</v>
       </c>
       <c r="L5">
-        <v>0.01661959045444128</v>
+        <v>0.05071403927312801</v>
       </c>
       <c r="M5">
-        <v>0.5625110798342803</v>
+        <v>1.129890765341983</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1314833567094809</v>
+        <v>0.2948170722604431</v>
       </c>
       <c r="D6">
-        <v>0.07425316959820094</v>
+        <v>0.02487390186446703</v>
       </c>
       <c r="E6">
-        <v>0.02334012480982128</v>
+        <v>0.08409734940949853</v>
       </c>
       <c r="F6">
-        <v>6.636250744611544</v>
+        <v>8.551382434076288</v>
       </c>
       <c r="G6">
-        <v>0.0009070377070005858</v>
+        <v>0.002799012331344322</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1941750827045965</v>
+        <v>0.3483497414304395</v>
       </c>
       <c r="K6">
-        <v>2.884783138111629</v>
+        <v>4.826271404022975</v>
       </c>
       <c r="L6">
-        <v>0.01659990075038742</v>
+        <v>0.05071101715505932</v>
       </c>
       <c r="M6">
-        <v>0.5599369086206281</v>
+        <v>1.129823895788199</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1341315119609447</v>
+        <v>0.2948059281203257</v>
       </c>
       <c r="D7">
-        <v>0.07717870659826787</v>
+        <v>0.02576509217820444</v>
       </c>
       <c r="E7">
-        <v>0.02327699825772989</v>
+        <v>0.08392453432292779</v>
       </c>
       <c r="F7">
-        <v>6.804295236743741</v>
+        <v>8.591157653801247</v>
       </c>
       <c r="G7">
-        <v>0.0009032819573662894</v>
+        <v>0.002796708254615917</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1968923164328302</v>
+        <v>0.3488309026017262</v>
       </c>
       <c r="K7">
-        <v>2.994610263184597</v>
+        <v>4.835651486300975</v>
       </c>
       <c r="L7">
-        <v>0.01673729252717493</v>
+        <v>0.05073218561916804</v>
       </c>
       <c r="M7">
-        <v>0.5779378494766405</v>
+        <v>1.130358008565167</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1464282203439211</v>
+        <v>0.2950661619270534</v>
       </c>
       <c r="D8">
-        <v>0.09040009976489216</v>
+        <v>0.02967542264926948</v>
       </c>
       <c r="E8">
-        <v>0.02306162407751167</v>
+        <v>0.0832204350983563</v>
       </c>
       <c r="F8">
-        <v>7.570650376973276</v>
+        <v>8.771522912636641</v>
       </c>
       <c r="G8">
-        <v>0.0008870906314178887</v>
+        <v>0.002787055165394818</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2094160301883434</v>
+        <v>0.3511105874350378</v>
       </c>
       <c r="K8">
-        <v>3.498553919572885</v>
+        <v>4.885275182906128</v>
       </c>
       <c r="L8">
-        <v>0.01736384910254074</v>
+        <v>0.05083037565997195</v>
       </c>
       <c r="M8">
-        <v>0.6609691956101713</v>
+        <v>1.134447529464438</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1732209815020695</v>
+        <v>0.2966902818171349</v>
       </c>
       <c r="D9">
-        <v>0.1179626181455546</v>
+        <v>0.03727672916865288</v>
       </c>
       <c r="E9">
-        <v>0.02287911712774715</v>
+        <v>0.08204880032660178</v>
       </c>
       <c r="F9">
-        <v>9.190824607551718</v>
+        <v>9.143129458360079</v>
       </c>
       <c r="G9">
-        <v>0.0008564431602510351</v>
+        <v>0.002769958641556208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2364025990769534</v>
+        <v>0.3561513393431355</v>
       </c>
       <c r="K9">
-        <v>4.575660471342189</v>
+        <v>5.01231154001988</v>
       </c>
       <c r="L9">
-        <v>0.01869195808641066</v>
+        <v>0.05104045903180499</v>
       </c>
       <c r="M9">
-        <v>0.8400389205669256</v>
+        <v>1.148710487552371</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1950923206694029</v>
+        <v>0.2985651070582094</v>
       </c>
       <c r="D10">
-        <v>0.1397998696351692</v>
+        <v>0.04283357139823352</v>
       </c>
       <c r="E10">
-        <v>0.02290600547633126</v>
+        <v>0.08131445611747079</v>
       </c>
       <c r="F10">
-        <v>10.48492870972166</v>
+        <v>9.427571210749932</v>
       </c>
       <c r="G10">
-        <v>0.0008342925522469697</v>
+        <v>0.002758500813565583</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2582940358856121</v>
+        <v>0.36021075785996</v>
       </c>
       <c r="K10">
-        <v>5.443731903707203</v>
+        <v>5.123930884425477</v>
       </c>
       <c r="L10">
-        <v>0.01975918136092147</v>
+        <v>0.05120586051727294</v>
       </c>
       <c r="M10">
-        <v>0.9853362109850607</v>
+        <v>1.163016884807448</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2056692772783464</v>
+        <v>0.299566666619441</v>
       </c>
       <c r="D11">
-        <v>0.1502416059758218</v>
+        <v>0.04535830069586666</v>
       </c>
       <c r="E11">
-        <v>0.02295728239361772</v>
+        <v>0.08100763111838027</v>
       </c>
       <c r="F11">
-        <v>11.1050409722078</v>
+        <v>9.559563492971108</v>
       </c>
       <c r="G11">
-        <v>0.0008242111172873047</v>
+        <v>0.00275352473223927</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.268861956131758</v>
+        <v>0.3621366494210108</v>
       </c>
       <c r="K11">
-        <v>5.861560774755219</v>
+        <v>5.17871911236432</v>
       </c>
       <c r="L11">
-        <v>0.02027318282419088</v>
+        <v>0.05128358751416862</v>
       </c>
       <c r="M11">
-        <v>1.055481457564618</v>
+        <v>1.170361544873053</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2097803434752592</v>
+        <v>0.2999673602179627</v>
       </c>
       <c r="D12">
-        <v>0.1542854041074406</v>
+        <v>0.04631412608091523</v>
       </c>
       <c r="E12">
-        <v>0.02298273443299514</v>
+        <v>0.08089534376408913</v>
       </c>
       <c r="F12">
-        <v>11.34528755548001</v>
+        <v>9.609927815768231</v>
       </c>
       <c r="G12">
-        <v>0.000820384230663202</v>
+        <v>0.00275167413505485</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2729678540809886</v>
+        <v>0.362877473159557</v>
       </c>
       <c r="K12">
-        <v>6.023727283547998</v>
+        <v>5.200045876312572</v>
       </c>
       <c r="L12">
-        <v>0.02047282174429554</v>
+        <v>0.05131338443410449</v>
       </c>
       <c r="M12">
-        <v>1.082735642567762</v>
+        <v>1.173263471245875</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2088899665561996</v>
+        <v>0.2998801100928148</v>
       </c>
       <c r="D13">
-        <v>0.1534102075360977</v>
+        <v>0.04610827903232462</v>
       </c>
       <c r="E13">
-        <v>0.02297697694848289</v>
+        <v>0.08091935361516711</v>
       </c>
       <c r="F13">
-        <v>11.29328865245662</v>
+        <v>9.599063850996004</v>
       </c>
       <c r="G13">
-        <v>0.0008212089849354497</v>
+        <v>0.002752071197300986</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2720786521921497</v>
+        <v>0.3627174085103348</v>
       </c>
       <c r="K13">
-        <v>5.988614773873735</v>
+        <v>5.195426951164166</v>
       </c>
       <c r="L13">
-        <v>0.0204295873887439</v>
+        <v>0.05130695087458115</v>
       </c>
       <c r="M13">
-        <v>1.076833226470164</v>
+        <v>1.172633116981942</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2060052770736576</v>
+        <v>0.2995992022824367</v>
       </c>
       <c r="D14">
-        <v>0.1505723858961119</v>
+        <v>0.04543694051019997</v>
       </c>
       <c r="E14">
-        <v>0.02295925271807953</v>
+        <v>0.08099831508287636</v>
       </c>
       <c r="F14">
-        <v>11.12469170307651</v>
+        <v>9.56369929934408</v>
       </c>
       <c r="G14">
-        <v>0.0008238965175124361</v>
+        <v>0.002753371807486196</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2691975601364192</v>
+        <v>0.3621973655637731</v>
       </c>
       <c r="K14">
-        <v>5.874819121872008</v>
+        <v>5.180462044926969</v>
       </c>
       <c r="L14">
-        <v>0.02028950128400098</v>
+        <v>0.05128603160671119</v>
       </c>
       <c r="M14">
-        <v>1.057709109074523</v>
+        <v>1.170597867694319</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2042526118170258</v>
+        <v>0.2994299296002509</v>
       </c>
       <c r="D15">
-        <v>0.1488463756674037</v>
+        <v>0.04502570202573963</v>
       </c>
       <c r="E15">
-        <v>0.02294919580153731</v>
+        <v>0.08104718878709427</v>
       </c>
       <c r="F15">
-        <v>11.0221573123282</v>
+        <v>9.542087442233992</v>
       </c>
       <c r="G15">
-        <v>0.0008255412211388702</v>
+        <v>0.002754172855659547</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2674468996884869</v>
+        <v>0.361880329908864</v>
       </c>
       <c r="K15">
-        <v>5.805650899112493</v>
+        <v>5.171371178541904</v>
       </c>
       <c r="L15">
-        <v>0.02020437507664496</v>
+        <v>0.05127326545674116</v>
       </c>
       <c r="M15">
-        <v>1.04608872880209</v>
+        <v>1.169366943691088</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1944149854534345</v>
+        <v>0.2985026484504658</v>
       </c>
       <c r="D16">
-        <v>0.1391290547062454</v>
+        <v>0.04266852996258308</v>
       </c>
       <c r="E16">
-        <v>0.02290347426093131</v>
+        <v>0.08133505451447753</v>
       </c>
       <c r="F16">
-        <v>10.44510876788809</v>
+        <v>9.418998176650291</v>
       </c>
       <c r="G16">
-        <v>0.0008349506015758509</v>
+        <v>0.002758830745297924</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2576169957954306</v>
+        <v>0.3600865023924626</v>
       </c>
       <c r="K16">
-        <v>5.416939769057933</v>
+        <v>5.120431307265733</v>
       </c>
       <c r="L16">
-        <v>0.01972623667089124</v>
+        <v>0.05120083139466658</v>
       </c>
       <c r="M16">
-        <v>0.9808424161278708</v>
+        <v>1.162553758926819</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1885508559993951</v>
+        <v>0.2979719046875289</v>
       </c>
       <c r="D17">
-        <v>0.1333088039862105</v>
+        <v>0.04122183581051786</v>
       </c>
       <c r="E17">
-        <v>0.02288570135646406</v>
+        <v>0.08151861458901788</v>
       </c>
       <c r="F17">
-        <v>10.09974854622084</v>
+        <v>9.344158092391524</v>
       </c>
       <c r="G17">
-        <v>0.0008407160669672287</v>
+        <v>0.002761748534926653</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2517535143084118</v>
+        <v>0.3590064386630587</v>
       </c>
       <c r="K17">
-        <v>5.184774901297772</v>
+        <v>5.090210822083463</v>
       </c>
       <c r="L17">
-        <v>0.01944080246190794</v>
+        <v>0.05115703618679035</v>
       </c>
       <c r="M17">
-        <v>0.9419244814482752</v>
+        <v>1.158588614932746</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.185235952245705</v>
+        <v>0.297680627755966</v>
       </c>
       <c r="D18">
-        <v>0.1300077874504382</v>
+        <v>0.04038943045014776</v>
       </c>
       <c r="E18">
-        <v>0.02287912476673259</v>
+        <v>0.08162675758117288</v>
       </c>
       <c r="F18">
-        <v>9.904000672635391</v>
+        <v>9.301356129051243</v>
       </c>
       <c r="G18">
-        <v>0.0008440323319865486</v>
+        <v>0.00276344901023684</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2484372116565865</v>
+        <v>0.3583926649225262</v>
       </c>
       <c r="K18">
-        <v>5.05335384260195</v>
+        <v>5.073206258599384</v>
       </c>
       <c r="L18">
-        <v>0.01927924939723091</v>
+        <v>0.05113207987550616</v>
       </c>
       <c r="M18">
-        <v>0.9199133587898913</v>
+        <v>1.156386691608546</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1841231136592825</v>
+        <v>0.2975844084185724</v>
       </c>
       <c r="D19">
-        <v>0.1288976705694438</v>
+        <v>0.04010753346847196</v>
       </c>
       <c r="E19">
-        <v>0.02287751266053206</v>
+        <v>0.08166381379504983</v>
       </c>
       <c r="F19">
-        <v>9.838195940425095</v>
+        <v>9.28690579557383</v>
       </c>
       <c r="G19">
-        <v>0.0008451554190337771</v>
+        <v>0.00276402858847654</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2473235713677937</v>
+        <v>0.3581861271967881</v>
       </c>
       <c r="K19">
-        <v>5.009202307666783</v>
+        <v>5.067513553718868</v>
       </c>
       <c r="L19">
-        <v>0.01922497595605321</v>
+        <v>0.05112367002480767</v>
       </c>
       <c r="M19">
-        <v>0.9125219036819345</v>
+        <v>1.155654668290651</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1891689973543009</v>
+        <v>0.2980269547597203</v>
       </c>
       <c r="D20">
-        <v>0.1339234416483919</v>
+        <v>0.04137586892625222</v>
       </c>
       <c r="E20">
-        <v>0.02288721317533771</v>
+        <v>0.08149880904363815</v>
       </c>
       <c r="F20">
-        <v>10.13620716151897</v>
+        <v>9.352099628339829</v>
       </c>
       <c r="G20">
-        <v>0.0008401023674942443</v>
+        <v>0.002761435630893259</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2523717642843835</v>
+        <v>0.3591206412342487</v>
       </c>
       <c r="K20">
-        <v>5.209266168619479</v>
+        <v>5.093388759286654</v>
       </c>
       <c r="L20">
-        <v>0.01947091020318759</v>
+        <v>0.05116167404782423</v>
       </c>
       <c r="M20">
-        <v>0.9460279846119732</v>
+        <v>1.159002561256131</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2068495701620208</v>
+        <v>0.2996811298965696</v>
       </c>
       <c r="D21">
-        <v>0.1514033381080253</v>
+        <v>0.04563413358231116</v>
       </c>
       <c r="E21">
-        <v>0.02296429123622978</v>
+        <v>0.08097501644482108</v>
       </c>
       <c r="F21">
-        <v>11.17405744286174</v>
+        <v>9.574076300872491</v>
       </c>
       <c r="G21">
-        <v>0.000823107451907658</v>
+        <v>0.002752988872758264</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2700408361822184</v>
+        <v>0.3623498007590058</v>
       </c>
       <c r="K21">
-        <v>5.908130854815568</v>
+        <v>5.184841846707002</v>
       </c>
       <c r="L21">
-        <v>0.02033050427005278</v>
+        <v>0.05129216619146959</v>
       </c>
       <c r="M21">
-        <v>1.063306573646678</v>
+        <v>1.171192392003931</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2190310424685435</v>
+        <v>0.3008871309513097</v>
       </c>
       <c r="D22">
-        <v>0.1633607891563145</v>
+        <v>0.04841588686231546</v>
       </c>
       <c r="E22">
-        <v>0.02305009618953946</v>
+        <v>0.08065541653647834</v>
       </c>
       <c r="F22">
-        <v>11.88451880912288</v>
+        <v>9.721379631309503</v>
       </c>
       <c r="G22">
-        <v>0.000811941058237696</v>
+        <v>0.002747664972785179</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2822051525109543</v>
+        <v>0.3645275159265253</v>
       </c>
       <c r="K22">
-        <v>6.388264474608491</v>
+        <v>5.247991733870833</v>
       </c>
       <c r="L22">
-        <v>0.02092198751633667</v>
+        <v>0.05137957137679194</v>
       </c>
       <c r="M22">
-        <v>1.14405411506128</v>
+        <v>1.179862650798341</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.212466314722036</v>
+        <v>0.3002320219034686</v>
       </c>
       <c r="D23">
-        <v>0.1569236630742807</v>
+        <v>0.04693125835228784</v>
       </c>
       <c r="E23">
-        <v>0.02300089821761198</v>
+        <v>0.08082391832371094</v>
       </c>
       <c r="F23">
-        <v>11.50204238433878</v>
+        <v>9.642554437785122</v>
       </c>
       <c r="G23">
-        <v>0.0008179094622403673</v>
+        <v>0.002750488527088848</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2756501281200983</v>
+        <v>0.3633590274451919</v>
       </c>
       <c r="K23">
-        <v>6.129620305255457</v>
+        <v>5.213977245096316</v>
       </c>
       <c r="L23">
-        <v>0.02060323849524792</v>
+        <v>0.05133272548128076</v>
       </c>
       <c r="M23">
-        <v>1.100540479539106</v>
+        <v>1.175170675355616</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.188889360910224</v>
+        <v>0.2980020234697776</v>
       </c>
       <c r="D24">
-        <v>0.1336454246256267</v>
+        <v>0.04130623269404055</v>
       </c>
       <c r="E24">
-        <v>0.02288651837077271</v>
+        <v>0.081507754994254</v>
       </c>
       <c r="F24">
-        <v>10.1197155527681</v>
+        <v>9.348508560974039</v>
       </c>
       <c r="G24">
-        <v>0.0008403798153058251</v>
+        <v>0.00276157702318004</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2520920843133823</v>
+        <v>0.3590689879314937</v>
       </c>
       <c r="K24">
-        <v>5.198187317065504</v>
+        <v>5.091950862872409</v>
       </c>
       <c r="L24">
-        <v>0.01945729062496326</v>
+        <v>0.05115957657927694</v>
       </c>
       <c r="M24">
-        <v>0.9441716671539524</v>
+        <v>1.158815174160772</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1656339884519156</v>
+        <v>0.2961314183961292</v>
       </c>
       <c r="D25">
-        <v>0.1102757125982095</v>
+        <v>0.0352262015897935</v>
       </c>
       <c r="E25">
-        <v>0.02290143083723883</v>
+        <v>0.08234347891389326</v>
       </c>
       <c r="F25">
-        <v>8.736930508526001</v>
+        <v>9.040630941947796</v>
       </c>
       <c r="G25">
-        <v>0.0008646448595245729</v>
+        <v>0.002774388957803986</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2287871462653257</v>
+        <v>0.3547257773397376</v>
       </c>
       <c r="K25">
-        <v>4.27264906822478</v>
+        <v>4.974746022191255</v>
       </c>
       <c r="L25">
-        <v>0.0183191443987436</v>
+        <v>0.05098171157351317</v>
       </c>
       <c r="M25">
-        <v>0.7894977468804072</v>
+        <v>1.144181460155359</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2952119588580189</v>
+        <v>0.1499235879800978</v>
       </c>
       <c r="D2">
-        <v>0.03072992620381854</v>
+        <v>0.09407423673650328</v>
       </c>
       <c r="E2">
-        <v>0.0830438487301226</v>
+        <v>0.02301903018201124</v>
       </c>
       <c r="F2">
-        <v>8.821586488591208</v>
+        <v>7.785203710799863</v>
       </c>
       <c r="G2">
-        <v>0.002784564261579222</v>
+        <v>0.0008827881413607308</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3517665580556226</v>
+        <v>0.2129548850161385</v>
       </c>
       <c r="K2">
-        <v>4.900726431097041</v>
+        <v>3.640394713871274</v>
       </c>
       <c r="L2">
-        <v>0.05085815343876732</v>
+        <v>0.01753936654594135</v>
       </c>
       <c r="M2">
-        <v>1.135977361395618</v>
+        <v>0.6844439834088831</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2948735464759125</v>
+        <v>0.1399758405927116</v>
       </c>
       <c r="D3">
-        <v>0.02766620663722819</v>
+        <v>0.08352796370120075</v>
       </c>
       <c r="E3">
-        <v>0.08357188095053836</v>
+        <v>0.02316039588011076</v>
       </c>
       <c r="F3">
-        <v>8.677735975671226</v>
+        <v>7.171059956415064</v>
       </c>
       <c r="G3">
-        <v>0.0027919279193664</v>
+        <v>0.0008953576421159903</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3499071365648376</v>
+        <v>0.2028611789909434</v>
       </c>
       <c r="K3">
-        <v>4.858164982595042</v>
+        <v>3.235213963991953</v>
       </c>
       <c r="L3">
-        <v>0.0507789119186004</v>
+        <v>0.01703711569497557</v>
       </c>
       <c r="M3">
-        <v>1.132013603506017</v>
+        <v>0.6175002683389863</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2948059669456597</v>
+        <v>0.1341628129315637</v>
       </c>
       <c r="D4">
-        <v>0.0257755073485626</v>
+        <v>0.07721308812116234</v>
       </c>
       <c r="E4">
-        <v>0.08392254424038548</v>
+        <v>0.02327629365648409</v>
       </c>
       <c r="F4">
-        <v>8.59162570014243</v>
+        <v>6.806273970003815</v>
       </c>
       <c r="G4">
-        <v>0.002796681576330024</v>
+        <v>0.000903238230694603</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3488366179803464</v>
+        <v>0.1969243819046795</v>
       </c>
       <c r="K4">
-        <v>4.835765742258872</v>
+        <v>2.995905132640303</v>
       </c>
       <c r="L4">
-        <v>0.05073243591338894</v>
+        <v>0.01673891018411311</v>
       </c>
       <c r="M4">
-        <v>1.130365205640459</v>
+        <v>0.5781503141797799</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2948136660047709</v>
+        <v>0.1318615708757989</v>
       </c>
       <c r="D5">
-        <v>0.0250024329329861</v>
+        <v>0.07467310633609969</v>
       </c>
       <c r="E5">
-        <v>0.08407211073835352</v>
+        <v>0.02333066887858681</v>
       </c>
       <c r="F5">
-        <v>8.557084902218662</v>
+        <v>6.660331169461898</v>
       </c>
       <c r="G5">
-        <v>0.002798677380747511</v>
+        <v>0.0009064942522686853</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3484181559830475</v>
+        <v>0.1945637176698867</v>
       </c>
       <c r="K5">
-        <v>4.827574935387759</v>
+        <v>2.900503663906335</v>
       </c>
       <c r="L5">
-        <v>0.05071403927312801</v>
+        <v>0.01661959045427963</v>
       </c>
       <c r="M5">
-        <v>1.129890765341983</v>
+        <v>0.5625110798342874</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2948170722604431</v>
+        <v>0.1314833567091398</v>
       </c>
       <c r="D6">
-        <v>0.02487390186446703</v>
+        <v>0.074253169598272</v>
       </c>
       <c r="E6">
-        <v>0.08409734940949853</v>
+        <v>0.0233401248099101</v>
       </c>
       <c r="F6">
-        <v>8.551382434076288</v>
+        <v>6.636250744611402</v>
       </c>
       <c r="G6">
-        <v>0.002799012331344322</v>
+        <v>0.0009070377069727722</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3483497414304395</v>
+        <v>0.1941750827045965</v>
       </c>
       <c r="K6">
-        <v>4.826271404022975</v>
+        <v>2.884783138111544</v>
       </c>
       <c r="L6">
-        <v>0.05071101715505932</v>
+        <v>0.01659990075013873</v>
       </c>
       <c r="M6">
-        <v>1.129823895788199</v>
+        <v>0.5599369086206281</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2948059281203257</v>
+        <v>0.1341315119612148</v>
       </c>
       <c r="D7">
-        <v>0.02576509217820444</v>
+        <v>0.07717870659840997</v>
       </c>
       <c r="E7">
-        <v>0.08392453432292779</v>
+        <v>0.02327699825770058</v>
       </c>
       <c r="F7">
-        <v>8.591157653801247</v>
+        <v>6.804295236743656</v>
       </c>
       <c r="G7">
-        <v>0.002796708254615917</v>
+        <v>0.0009032819572828572</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3488309026017262</v>
+        <v>0.1968923164326881</v>
       </c>
       <c r="K7">
-        <v>4.835651486300975</v>
+        <v>2.994610263184541</v>
       </c>
       <c r="L7">
-        <v>0.05073218561916804</v>
+        <v>0.01673729252732414</v>
       </c>
       <c r="M7">
-        <v>1.130358008565167</v>
+        <v>0.5779378494766547</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2950661619270534</v>
+        <v>0.1464282203446885</v>
       </c>
       <c r="D8">
-        <v>0.02967542264926948</v>
+        <v>0.0904000997644161</v>
       </c>
       <c r="E8">
-        <v>0.0832204350983563</v>
+        <v>0.02306162407751255</v>
       </c>
       <c r="F8">
-        <v>8.771522912636641</v>
+        <v>7.570650376973418</v>
       </c>
       <c r="G8">
-        <v>0.002787055165394818</v>
+        <v>0.0008870906316003069</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3511105874350378</v>
+        <v>0.2094160301884429</v>
       </c>
       <c r="K8">
-        <v>4.885275182906128</v>
+        <v>3.498553919572771</v>
       </c>
       <c r="L8">
-        <v>0.05083037565997195</v>
+        <v>0.01736384910250521</v>
       </c>
       <c r="M8">
-        <v>1.134447529464438</v>
+        <v>0.66096919561015</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2966902818171349</v>
+        <v>0.1732209815021406</v>
       </c>
       <c r="D9">
-        <v>0.03727672916865288</v>
+        <v>0.1179626181460662</v>
       </c>
       <c r="E9">
-        <v>0.08204880032660178</v>
+        <v>0.022879117127661</v>
       </c>
       <c r="F9">
-        <v>9.143129458360079</v>
+        <v>9.190824607551633</v>
       </c>
       <c r="G9">
-        <v>0.002769958641556208</v>
+        <v>0.0008564431604847632</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3561513393431355</v>
+        <v>0.2364025990770031</v>
       </c>
       <c r="K9">
-        <v>5.01231154001988</v>
+        <v>4.575660471342417</v>
       </c>
       <c r="L9">
-        <v>0.05104045903180499</v>
+        <v>0.0186919580860927</v>
       </c>
       <c r="M9">
-        <v>1.148710487552371</v>
+        <v>0.8400389205669327</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2985651070582094</v>
+        <v>0.1950923206694455</v>
       </c>
       <c r="D10">
-        <v>0.04283357139823352</v>
+        <v>0.1397998696350271</v>
       </c>
       <c r="E10">
-        <v>0.08131445611747079</v>
+        <v>0.02290600547624155</v>
       </c>
       <c r="F10">
-        <v>9.427571210749932</v>
+        <v>10.48492870972169</v>
       </c>
       <c r="G10">
-        <v>0.002758500813565583</v>
+        <v>0.0008342925522598768</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.36021075785996</v>
+        <v>0.258294035885541</v>
       </c>
       <c r="K10">
-        <v>5.123930884425477</v>
+        <v>5.443731903707544</v>
       </c>
       <c r="L10">
-        <v>0.05120586051727294</v>
+        <v>0.01975918136108312</v>
       </c>
       <c r="M10">
-        <v>1.163016884807448</v>
+        <v>0.9853362109850607</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.299566666619441</v>
+        <v>0.2056692772787443</v>
       </c>
       <c r="D11">
-        <v>0.04535830069586666</v>
+        <v>0.150241605975765</v>
       </c>
       <c r="E11">
-        <v>0.08100763111838027</v>
+        <v>0.02295728239371542</v>
       </c>
       <c r="F11">
-        <v>9.559563492971108</v>
+        <v>11.10504097220792</v>
       </c>
       <c r="G11">
-        <v>0.00275352473223927</v>
+        <v>0.0008242111172748358</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3621366494210108</v>
+        <v>0.268861956131623</v>
       </c>
       <c r="K11">
-        <v>5.17871911236432</v>
+        <v>5.861560774755276</v>
       </c>
       <c r="L11">
-        <v>0.05128358751416862</v>
+        <v>0.02027318282405943</v>
       </c>
       <c r="M11">
-        <v>1.170361544873053</v>
+        <v>1.055481457564639</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2999673602179627</v>
+        <v>0.2097803434761687</v>
       </c>
       <c r="D12">
-        <v>0.04631412608091523</v>
+        <v>0.154285404106659</v>
       </c>
       <c r="E12">
-        <v>0.08089534376408913</v>
+        <v>0.02298273443297028</v>
       </c>
       <c r="F12">
-        <v>9.609927815768231</v>
+        <v>11.34528755548013</v>
       </c>
       <c r="G12">
-        <v>0.00275167413505485</v>
+        <v>0.0008203842305367173</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.362877473159557</v>
+        <v>0.2729678540809317</v>
       </c>
       <c r="K12">
-        <v>5.200045876312572</v>
+        <v>6.023727283547998</v>
       </c>
       <c r="L12">
-        <v>0.05131338443410449</v>
+        <v>0.02047282174438436</v>
       </c>
       <c r="M12">
-        <v>1.173263471245875</v>
+        <v>1.082735642567776</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2998801100928148</v>
+        <v>0.2088899665561712</v>
       </c>
       <c r="D13">
-        <v>0.04610827903232462</v>
+        <v>0.1534102075360835</v>
       </c>
       <c r="E13">
-        <v>0.08091935361516711</v>
+        <v>0.0229769769484065</v>
       </c>
       <c r="F13">
-        <v>9.599063850996004</v>
+        <v>11.29328865245668</v>
       </c>
       <c r="G13">
-        <v>0.002752071197300986</v>
+        <v>0.0008212089849420576</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3627174085103348</v>
+        <v>0.2720786521924623</v>
       </c>
       <c r="K13">
-        <v>5.195426951164166</v>
+        <v>5.988614773873735</v>
       </c>
       <c r="L13">
-        <v>0.05130695087458115</v>
+        <v>0.02042958738868528</v>
       </c>
       <c r="M13">
-        <v>1.172633116981942</v>
+        <v>1.07683322647015</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2995992022824367</v>
+        <v>0.2060052770741692</v>
       </c>
       <c r="D14">
-        <v>0.04543694051019997</v>
+        <v>0.150572385896325</v>
       </c>
       <c r="E14">
-        <v>0.08099831508287636</v>
+        <v>0.0229592527180138</v>
       </c>
       <c r="F14">
-        <v>9.56369929934408</v>
+        <v>11.12469170307651</v>
       </c>
       <c r="G14">
-        <v>0.002753371807486196</v>
+        <v>0.0008238965178599099</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3621973655637731</v>
+        <v>0.2691975601364831</v>
       </c>
       <c r="K14">
-        <v>5.180462044926969</v>
+        <v>5.874819121872065</v>
       </c>
       <c r="L14">
-        <v>0.05128603160671119</v>
+        <v>0.02028950128383578</v>
       </c>
       <c r="M14">
-        <v>1.170597867694319</v>
+        <v>1.057709109074494</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2994299296002509</v>
+        <v>0.20425261181758</v>
       </c>
       <c r="D15">
-        <v>0.04502570202573963</v>
+        <v>0.1488463756674463</v>
       </c>
       <c r="E15">
-        <v>0.08104718878709427</v>
+        <v>0.02294919580137389</v>
       </c>
       <c r="F15">
-        <v>9.542087442233992</v>
+        <v>11.0221573123282</v>
       </c>
       <c r="G15">
-        <v>0.002754172855659547</v>
+        <v>0.0008255412213837497</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.361880329908864</v>
+        <v>0.2674468996884443</v>
       </c>
       <c r="K15">
-        <v>5.171371178541904</v>
+        <v>5.805650899112322</v>
       </c>
       <c r="L15">
-        <v>0.05127326545674116</v>
+        <v>0.02020437507661654</v>
       </c>
       <c r="M15">
-        <v>1.169366943691088</v>
+        <v>1.046088728802104</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2985026484504658</v>
+        <v>0.194414985452525</v>
       </c>
       <c r="D16">
-        <v>0.04266852996258308</v>
+        <v>0.1391290547058475</v>
       </c>
       <c r="E16">
-        <v>0.08133505451447753</v>
+        <v>0.02290347426089046</v>
       </c>
       <c r="F16">
-        <v>9.418998176650291</v>
+        <v>10.44510876788803</v>
       </c>
       <c r="G16">
-        <v>0.002758830745297924</v>
+        <v>0.0008349506018149218</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3600865023924626</v>
+        <v>0.2576169957956367</v>
       </c>
       <c r="K16">
-        <v>5.120431307265733</v>
+        <v>5.416939769057876</v>
       </c>
       <c r="L16">
-        <v>0.05120083139466658</v>
+        <v>0.01972623667098716</v>
       </c>
       <c r="M16">
-        <v>1.162553758926819</v>
+        <v>0.9808424161278992</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2979719046875289</v>
+        <v>0.1885508559994094</v>
       </c>
       <c r="D17">
-        <v>0.04122183581051786</v>
+        <v>0.1333088039859689</v>
       </c>
       <c r="E17">
-        <v>0.08151861458901788</v>
+        <v>0.02288570135646673</v>
       </c>
       <c r="F17">
-        <v>9.344158092391524</v>
+        <v>10.09974854622084</v>
       </c>
       <c r="G17">
-        <v>0.002761748534926653</v>
+        <v>0.0008407160667346123</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3590064386630587</v>
+        <v>0.2517535143081986</v>
       </c>
       <c r="K17">
-        <v>5.090210822083463</v>
+        <v>5.184774901297658</v>
       </c>
       <c r="L17">
-        <v>0.05115703618679035</v>
+        <v>0.01944080246192392</v>
       </c>
       <c r="M17">
-        <v>1.158588614932746</v>
+        <v>0.9419244814482823</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.297680627755966</v>
+        <v>0.1852359522457903</v>
       </c>
       <c r="D18">
-        <v>0.04038943045014776</v>
+        <v>0.1300077874500545</v>
       </c>
       <c r="E18">
-        <v>0.08162675758117288</v>
+        <v>0.0228791247667175</v>
       </c>
       <c r="F18">
-        <v>9.301356129051243</v>
+        <v>9.904000672635277</v>
       </c>
       <c r="G18">
-        <v>0.00276344901023684</v>
+        <v>0.0008440323321205482</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3583926649225262</v>
+        <v>0.2484372116566789</v>
       </c>
       <c r="K18">
-        <v>5.073206258599384</v>
+        <v>5.053353842601894</v>
       </c>
       <c r="L18">
-        <v>0.05113207987550616</v>
+        <v>0.01927924939734638</v>
       </c>
       <c r="M18">
-        <v>1.156386691608546</v>
+        <v>0.9199133587898487</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2975844084185724</v>
+        <v>0.1841231136597372</v>
       </c>
       <c r="D19">
-        <v>0.04010753346847196</v>
+        <v>0.1288976705687048</v>
       </c>
       <c r="E19">
-        <v>0.08166381379504983</v>
+        <v>0.02287751266051696</v>
       </c>
       <c r="F19">
-        <v>9.28690579557383</v>
+        <v>9.838195940425123</v>
       </c>
       <c r="G19">
-        <v>0.00276402858847654</v>
+        <v>0.0008451554187949865</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3581861271967881</v>
+        <v>0.2473235713677155</v>
       </c>
       <c r="K19">
-        <v>5.067513553718868</v>
+        <v>5.00920230766684</v>
       </c>
       <c r="L19">
-        <v>0.05112367002480767</v>
+        <v>0.01922497595632322</v>
       </c>
       <c r="M19">
-        <v>1.155654668290651</v>
+        <v>0.912521903681899</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2980269547597203</v>
+        <v>0.1891689973542441</v>
       </c>
       <c r="D20">
-        <v>0.04137586892625222</v>
+        <v>0.1339234416488324</v>
       </c>
       <c r="E20">
-        <v>0.08149880904363815</v>
+        <v>0.02288721317532794</v>
       </c>
       <c r="F20">
-        <v>9.352099628339829</v>
+        <v>10.13620716151888</v>
       </c>
       <c r="G20">
-        <v>0.002761435630893259</v>
+        <v>0.0008401023673731514</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3591206412342487</v>
+        <v>0.2523717642842342</v>
       </c>
       <c r="K20">
-        <v>5.093388759286654</v>
+        <v>5.209266168619251</v>
       </c>
       <c r="L20">
-        <v>0.05116167404782423</v>
+        <v>0.01947091020314318</v>
       </c>
       <c r="M20">
-        <v>1.159002561256131</v>
+        <v>0.9460279846120017</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2996811298965696</v>
+        <v>0.206849570162035</v>
       </c>
       <c r="D21">
-        <v>0.04563413358231116</v>
+        <v>0.1514033381077411</v>
       </c>
       <c r="E21">
-        <v>0.08097501644482108</v>
+        <v>0.0229642912362209</v>
       </c>
       <c r="F21">
-        <v>9.574076300872491</v>
+        <v>11.17405744286174</v>
       </c>
       <c r="G21">
-        <v>0.002752988872758264</v>
+        <v>0.0008231074519028493</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3623498007590058</v>
+        <v>0.2700408361821758</v>
       </c>
       <c r="K21">
-        <v>5.184841846707002</v>
+        <v>5.908130854815624</v>
       </c>
       <c r="L21">
-        <v>0.05129216619146959</v>
+        <v>0.02033050427024463</v>
       </c>
       <c r="M21">
-        <v>1.171192392003931</v>
+        <v>1.06330657364667</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3008871309513097</v>
+        <v>0.2190310424690267</v>
       </c>
       <c r="D22">
-        <v>0.04841588686231546</v>
+        <v>0.1633607891563429</v>
       </c>
       <c r="E22">
-        <v>0.08065541653647834</v>
+        <v>0.02305009618955367</v>
       </c>
       <c r="F22">
-        <v>9.721379631309503</v>
+        <v>11.88451880912277</v>
       </c>
       <c r="G22">
-        <v>0.002747664972785179</v>
+        <v>0.0008119410582439758</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3645275159265253</v>
+        <v>0.2822051525108975</v>
       </c>
       <c r="K22">
-        <v>5.247991733870833</v>
+        <v>6.388264474608718</v>
       </c>
       <c r="L22">
-        <v>0.05137957137679194</v>
+        <v>0.02092198751632424</v>
       </c>
       <c r="M22">
-        <v>1.179862650798341</v>
+        <v>1.144054115061252</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3002320219034686</v>
+        <v>0.2124663147221213</v>
       </c>
       <c r="D23">
-        <v>0.04693125835228784</v>
+        <v>0.1569236630738828</v>
       </c>
       <c r="E23">
-        <v>0.08082391832371094</v>
+        <v>0.02300089821758533</v>
       </c>
       <c r="F23">
-        <v>9.642554437785122</v>
+        <v>11.50204238433867</v>
       </c>
       <c r="G23">
-        <v>0.002750488527088848</v>
+        <v>0.0008179094620014768</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3633590274451919</v>
+        <v>0.275650128120148</v>
       </c>
       <c r="K23">
-        <v>5.213977245096316</v>
+        <v>6.129620305255344</v>
       </c>
       <c r="L23">
-        <v>0.05133272548128076</v>
+        <v>0.02060323849513246</v>
       </c>
       <c r="M23">
-        <v>1.175170675355616</v>
+        <v>1.100540479539077</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2980020234697776</v>
+        <v>0.1888893609106645</v>
       </c>
       <c r="D24">
-        <v>0.04130623269404055</v>
+        <v>0.1336454246253425</v>
       </c>
       <c r="E24">
-        <v>0.081507754994254</v>
+        <v>0.02288651837074429</v>
       </c>
       <c r="F24">
-        <v>9.348508560974039</v>
+        <v>10.1197155527681</v>
       </c>
       <c r="G24">
-        <v>0.00276157702318004</v>
+        <v>0.0008403798151771379</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3590689879314937</v>
+        <v>0.2520920843132473</v>
       </c>
       <c r="K24">
-        <v>5.091950862872409</v>
+        <v>5.198187317065219</v>
       </c>
       <c r="L24">
-        <v>0.05115957657927694</v>
+        <v>0.01945729062493839</v>
       </c>
       <c r="M24">
-        <v>1.158815174160772</v>
+        <v>0.9441716671539169</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2961314183961292</v>
+        <v>0.1656339884518871</v>
       </c>
       <c r="D25">
-        <v>0.0352262015897935</v>
+        <v>0.1102757125979679</v>
       </c>
       <c r="E25">
-        <v>0.08234347891389326</v>
+        <v>0.02290143083728591</v>
       </c>
       <c r="F25">
-        <v>9.040630941947796</v>
+        <v>8.736930508525916</v>
       </c>
       <c r="G25">
-        <v>0.002774388957803986</v>
+        <v>0.0008646448596390401</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3547257773397376</v>
+        <v>0.2287871462653825</v>
       </c>
       <c r="K25">
-        <v>4.974746022191255</v>
+        <v>4.272649068224723</v>
       </c>
       <c r="L25">
-        <v>0.05098171157351317</v>
+        <v>0.01831914439880933</v>
       </c>
       <c r="M25">
-        <v>1.144181460155359</v>
+        <v>0.7894977468804143</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1499235879800978</v>
+        <v>0.08182454940132544</v>
       </c>
       <c r="D2">
-        <v>0.09407423673650328</v>
+        <v>0.02533328930357825</v>
       </c>
       <c r="E2">
-        <v>0.02301903018201124</v>
+        <v>0.06639806851095997</v>
       </c>
       <c r="F2">
-        <v>7.785203710799863</v>
+        <v>4.387470551542748</v>
       </c>
       <c r="G2">
-        <v>0.0008827881413607308</v>
+        <v>4.456859884884437</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0005998645115776746</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004284221001693123</v>
       </c>
       <c r="J2">
-        <v>0.2129548850161385</v>
+        <v>2.386376533931298</v>
       </c>
       <c r="K2">
-        <v>3.640394713871274</v>
+        <v>3.29430541181604</v>
       </c>
       <c r="L2">
-        <v>0.01753936654594135</v>
+        <v>0.1966450046327424</v>
       </c>
       <c r="M2">
-        <v>0.6844439834088831</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1104819400747274</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>7.663121664604034</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1399758405927116</v>
+        <v>0.07262598916291907</v>
       </c>
       <c r="D3">
-        <v>0.08352796370120075</v>
+        <v>0.0232015839445836</v>
       </c>
       <c r="E3">
-        <v>0.02316039588011076</v>
+        <v>0.06038726921553028</v>
       </c>
       <c r="F3">
-        <v>7.171059956415064</v>
+        <v>3.908655432146588</v>
       </c>
       <c r="G3">
-        <v>0.0008953576421159903</v>
+        <v>3.941906058933256</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.026512119256978E-06</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001367502881596927</v>
       </c>
       <c r="J3">
-        <v>0.2028611789909434</v>
+        <v>2.140171505158065</v>
       </c>
       <c r="K3">
-        <v>3.235213963991953</v>
+        <v>2.932511442898146</v>
       </c>
       <c r="L3">
-        <v>0.01703711569497557</v>
+        <v>0.1753600525486902</v>
       </c>
       <c r="M3">
-        <v>0.6175002683389863</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1006048473441936</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>6.74968365211538</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1341628129315637</v>
+        <v>0.06710514387993882</v>
       </c>
       <c r="D4">
-        <v>0.07721308812116234</v>
+        <v>0.0218953333342391</v>
       </c>
       <c r="E4">
-        <v>0.02327629365648409</v>
+        <v>0.05671728981401358</v>
       </c>
       <c r="F4">
-        <v>6.806273970003815</v>
+        <v>3.616124432979035</v>
       </c>
       <c r="G4">
-        <v>0.000903238230694603</v>
+        <v>3.627178227483398</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0003914574175221119</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000550089382547192</v>
       </c>
       <c r="J4">
-        <v>0.1969243819046795</v>
+        <v>1.989770702121518</v>
       </c>
       <c r="K4">
-        <v>2.995905132640303</v>
+        <v>2.711050665348495</v>
       </c>
       <c r="L4">
-        <v>0.01673891018411311</v>
+        <v>0.1623285517428101</v>
       </c>
       <c r="M4">
-        <v>0.5781503141797799</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0946096712442781</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>6.187481969423061</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1318615708757989</v>
+        <v>0.06481207330397254</v>
       </c>
       <c r="D5">
-        <v>0.07467310633609969</v>
+        <v>0.02133360530730855</v>
       </c>
       <c r="E5">
-        <v>0.02333066887858681</v>
+        <v>0.05519880670637001</v>
       </c>
       <c r="F5">
-        <v>6.660331169461898</v>
+        <v>3.494154860117646</v>
       </c>
       <c r="G5">
-        <v>0.0009064942522686853</v>
+        <v>3.495802225928088</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000726837176260986</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005077673943336691</v>
       </c>
       <c r="J5">
-        <v>0.1945637176698867</v>
+        <v>1.926945410768553</v>
       </c>
       <c r="K5">
-        <v>2.900503663906335</v>
+        <v>2.618049221516642</v>
       </c>
       <c r="L5">
-        <v>0.01661959045427963</v>
+        <v>0.1568615861967189</v>
       </c>
       <c r="M5">
-        <v>0.5625110798342874</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09227655306443339</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>5.958052239810286</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1314833567091398</v>
+        <v>0.0643506523207602</v>
       </c>
       <c r="D6">
-        <v>0.074253169598272</v>
+        <v>0.02120447221308908</v>
       </c>
       <c r="E6">
-        <v>0.0233401248099101</v>
+        <v>0.05491539818993196</v>
       </c>
       <c r="F6">
-        <v>6.636250744611402</v>
+        <v>3.47019647077849</v>
       </c>
       <c r="G6">
-        <v>0.0009070377069727722</v>
+        <v>3.469850043450606</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0007977043637876768</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0006000912837498262</v>
       </c>
       <c r="J6">
-        <v>0.1941750827045965</v>
+        <v>1.914460553747716</v>
       </c>
       <c r="K6">
-        <v>2.884783138111544</v>
+        <v>2.599108767602402</v>
       </c>
       <c r="L6">
-        <v>0.01659990075013873</v>
+        <v>0.1557587486471732</v>
       </c>
       <c r="M6">
-        <v>0.5599369086206281</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09200712469497319</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>5.919936152110608</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1341315119612148</v>
+        <v>0.06684695509197791</v>
       </c>
       <c r="D7">
-        <v>0.07717870659840997</v>
+        <v>0.02178897181584816</v>
       </c>
       <c r="E7">
-        <v>0.02327699825770058</v>
+        <v>0.05661060195065915</v>
       </c>
       <c r="F7">
-        <v>6.804295236743656</v>
+        <v>3.604272530592596</v>
       </c>
       <c r="G7">
-        <v>0.0009032819572828572</v>
+        <v>3.614013741877784</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.000404502251065697</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0007598796417287446</v>
       </c>
       <c r="J7">
-        <v>0.1968923164326881</v>
+        <v>1.98327083691737</v>
       </c>
       <c r="K7">
-        <v>2.994610263184541</v>
+        <v>2.700185688863328</v>
       </c>
       <c r="L7">
-        <v>0.01673729252732414</v>
+        <v>0.1617188792596309</v>
       </c>
       <c r="M7">
-        <v>0.5779378494766547</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09489884354948686</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>6.184389112219776</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1464282203446885</v>
+        <v>0.07831094645916892</v>
       </c>
       <c r="D8">
-        <v>0.0904000997644161</v>
+        <v>0.02446311662917822</v>
       </c>
       <c r="E8">
-        <v>0.02306162407751255</v>
+        <v>0.06420290298383691</v>
       </c>
       <c r="F8">
-        <v>7.570650376973418</v>
+        <v>4.208302791513489</v>
       </c>
       <c r="G8">
-        <v>0.0008870906316003069</v>
+        <v>4.263625513450421</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002227956969864664</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00327465477693778</v>
       </c>
       <c r="J8">
-        <v>0.2094160301884429</v>
+        <v>2.293707953121014</v>
       </c>
       <c r="K8">
-        <v>3.498553919572771</v>
+        <v>3.156465596380698</v>
       </c>
       <c r="L8">
-        <v>0.01736384910250521</v>
+        <v>0.1885703372094767</v>
       </c>
       <c r="M8">
-        <v>0.66096919561015</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1074883659509211</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>7.348453399592813</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1732209815021406</v>
+        <v>0.1025916069075006</v>
       </c>
       <c r="D9">
-        <v>0.1179626181460662</v>
+        <v>0.02994765108816466</v>
       </c>
       <c r="E9">
-        <v>0.022879117127661</v>
+        <v>0.0795371886464995</v>
       </c>
       <c r="F9">
-        <v>9.190824607551633</v>
+        <v>5.427440446364557</v>
       </c>
       <c r="G9">
-        <v>0.0008564431604847632</v>
+        <v>5.574604782314339</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.006489850288637244</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01659777788936534</v>
       </c>
       <c r="J9">
-        <v>0.2364025990770031</v>
+        <v>2.921142309375909</v>
       </c>
       <c r="K9">
-        <v>4.575660471342417</v>
+        <v>4.077311460301132</v>
       </c>
       <c r="L9">
-        <v>0.0186919580860927</v>
+        <v>0.2428270310994307</v>
       </c>
       <c r="M9">
-        <v>0.8400389205669327</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1322927795472921</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>9.620230281550789</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1950923206694455</v>
+        <v>0.1209844460211222</v>
       </c>
       <c r="D10">
-        <v>0.1397998696350271</v>
+        <v>0.03439501328881533</v>
       </c>
       <c r="E10">
-        <v>0.02290600547624155</v>
+        <v>0.08897758871857953</v>
       </c>
       <c r="F10">
-        <v>10.48492870972169</v>
+        <v>6.27569081957094</v>
       </c>
       <c r="G10">
-        <v>0.0008342925522598768</v>
+        <v>6.490820034371779</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0158007362324124</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03256201154271476</v>
       </c>
       <c r="J10">
-        <v>0.258294035885541</v>
+        <v>3.35903941631625</v>
       </c>
       <c r="K10">
-        <v>5.443731903707544</v>
+        <v>4.715189259244397</v>
       </c>
       <c r="L10">
-        <v>0.01975918136108312</v>
+        <v>0.2756108215023616</v>
       </c>
       <c r="M10">
-        <v>0.9853362109850607</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1459676825817056</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>11.28258838837513</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2056692772787443</v>
+        <v>0.1235453416052756</v>
       </c>
       <c r="D11">
-        <v>0.150241605975765</v>
+        <v>0.03976075222927733</v>
       </c>
       <c r="E11">
-        <v>0.02295728239371542</v>
+        <v>0.07664962729186797</v>
       </c>
       <c r="F11">
-        <v>11.10504097220792</v>
+        <v>6.138711620542466</v>
       </c>
       <c r="G11">
-        <v>0.0008242111172748358</v>
+        <v>6.386144671177021</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03547424256116827</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03682664814818359</v>
       </c>
       <c r="J11">
-        <v>0.268861956131623</v>
+        <v>3.300995219254389</v>
       </c>
       <c r="K11">
-        <v>5.861560774755276</v>
+        <v>4.612067358102763</v>
       </c>
       <c r="L11">
-        <v>0.02027318282405943</v>
+        <v>0.2283209902386361</v>
       </c>
       <c r="M11">
-        <v>1.055481457564639</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1112841967495086</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.03742316731751</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2097803434761687</v>
+        <v>0.1226235956060187</v>
       </c>
       <c r="D12">
-        <v>0.154285404106659</v>
+        <v>0.0438275837499873</v>
       </c>
       <c r="E12">
-        <v>0.02298273443297028</v>
+        <v>0.06711952714821567</v>
       </c>
       <c r="F12">
-        <v>11.34528755548013</v>
+        <v>5.858927981788355</v>
       </c>
       <c r="G12">
-        <v>0.0008203842305367173</v>
+        <v>6.120576381605133</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07336288304878735</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0364479018007291</v>
       </c>
       <c r="J12">
-        <v>0.2729678540809317</v>
+        <v>3.167309177470202</v>
       </c>
       <c r="K12">
-        <v>6.023727283547998</v>
+        <v>4.405052161319134</v>
       </c>
       <c r="L12">
-        <v>0.02047282174438436</v>
+        <v>0.1889842008044909</v>
       </c>
       <c r="M12">
-        <v>1.082735642567776</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08561144698962408</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.32306348037548</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2088899665561712</v>
+        <v>0.1185789032964228</v>
       </c>
       <c r="D13">
-        <v>0.1534102075360835</v>
+        <v>0.04688550119865198</v>
       </c>
       <c r="E13">
-        <v>0.0229769769484065</v>
+        <v>0.05910801724780423</v>
       </c>
       <c r="F13">
-        <v>11.29328865245668</v>
+        <v>5.439243399959338</v>
       </c>
       <c r="G13">
-        <v>0.0008212089849420576</v>
+        <v>5.699915578049399</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1267818791453124</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03263522029353805</v>
       </c>
       <c r="J13">
-        <v>0.2720786521924623</v>
+        <v>2.959732078788818</v>
       </c>
       <c r="K13">
-        <v>5.988614773873735</v>
+        <v>4.092634540760514</v>
       </c>
       <c r="L13">
-        <v>0.02042958738868528</v>
+        <v>0.1530218594440669</v>
       </c>
       <c r="M13">
-        <v>1.07683322647015</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06606419965559951</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.26155457991888</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2060052770741692</v>
+        <v>0.114481346556456</v>
       </c>
       <c r="D14">
-        <v>0.150572385896325</v>
+        <v>0.04853239490238792</v>
       </c>
       <c r="E14">
-        <v>0.0229592527180138</v>
+        <v>0.05460781680275772</v>
       </c>
       <c r="F14">
-        <v>11.12469170307651</v>
+        <v>5.083239394429512</v>
       </c>
       <c r="G14">
-        <v>0.0008238965178599099</v>
+        <v>5.335953054214031</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1739852057256854</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02872472513073632</v>
       </c>
       <c r="J14">
-        <v>0.2691975601364831</v>
+        <v>2.781243915702476</v>
       </c>
       <c r="K14">
-        <v>5.874819121872065</v>
+        <v>3.826491009278641</v>
       </c>
       <c r="L14">
-        <v>0.02028950128383578</v>
+        <v>0.1305207392973138</v>
       </c>
       <c r="M14">
-        <v>1.057709109074494</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0562416513575883</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.06092695796559</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.20425261181758</v>
+        <v>0.1127721992975452</v>
       </c>
       <c r="D15">
-        <v>0.1488463756674463</v>
+        <v>0.0486078855346932</v>
       </c>
       <c r="E15">
-        <v>0.02294919580137389</v>
+        <v>0.05347910745926665</v>
       </c>
       <c r="F15">
-        <v>11.0221573123282</v>
+        <v>4.964193764518228</v>
       </c>
       <c r="G15">
-        <v>0.0008255412213837497</v>
+        <v>5.211344998243192</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1856188285667315</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02719588084395852</v>
       </c>
       <c r="J15">
-        <v>0.2674468996884443</v>
+        <v>2.720603773170808</v>
       </c>
       <c r="K15">
-        <v>5.805650899112322</v>
+        <v>3.73656558540614</v>
       </c>
       <c r="L15">
-        <v>0.02020437507661654</v>
+        <v>0.1248806003173648</v>
       </c>
       <c r="M15">
-        <v>1.046088728802104</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05427750208415105</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>11.93801081193845</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.194414985452525</v>
+        <v>0.1056907598020995</v>
       </c>
       <c r="D16">
-        <v>0.1391290547058475</v>
+        <v>0.04579876184311615</v>
       </c>
       <c r="E16">
-        <v>0.02290347426089046</v>
+        <v>0.05134953527393327</v>
       </c>
       <c r="F16">
-        <v>10.44510876788803</v>
+        <v>4.69134518814036</v>
       </c>
       <c r="G16">
-        <v>0.0008349506018149218</v>
+        <v>4.908617355063711</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1694141810151848</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02122388945775278</v>
       </c>
       <c r="J16">
-        <v>0.2576169957956367</v>
+        <v>2.577050621330727</v>
       </c>
       <c r="K16">
-        <v>5.416939769057876</v>
+        <v>3.529896780680829</v>
       </c>
       <c r="L16">
-        <v>0.01972623667098716</v>
+        <v>0.1195292937685295</v>
       </c>
       <c r="M16">
-        <v>0.9808424161278992</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05326270216419893</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>11.23323027560713</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1885508559994094</v>
+        <v>0.1023456312625699</v>
       </c>
       <c r="D17">
-        <v>0.1333088039859689</v>
+        <v>0.04278648095512239</v>
       </c>
       <c r="E17">
-        <v>0.02288570135646673</v>
+        <v>0.05179364923261565</v>
       </c>
       <c r="F17">
-        <v>10.09974854622084</v>
+        <v>4.6684359906194</v>
       </c>
       <c r="G17">
-        <v>0.0008407160667346123</v>
+        <v>4.867065442957426</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1301302178802359</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01872886126973583</v>
       </c>
       <c r="J17">
-        <v>0.2517535143081986</v>
+        <v>2.560510814014663</v>
       </c>
       <c r="K17">
-        <v>5.184774901297658</v>
+        <v>3.510519369659562</v>
       </c>
       <c r="L17">
-        <v>0.01944080246192392</v>
+        <v>0.1264109361561481</v>
       </c>
       <c r="M17">
-        <v>0.9419244814482823</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.0569899694870859</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>10.80051555282938</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1852359522457903</v>
+        <v>0.1020605506955636</v>
       </c>
       <c r="D18">
-        <v>0.1300077874500545</v>
+        <v>0.03948416160605461</v>
       </c>
       <c r="E18">
-        <v>0.0228791247667175</v>
+        <v>0.05589083515371751</v>
       </c>
       <c r="F18">
-        <v>9.904000672635277</v>
+        <v>4.866502935685503</v>
       </c>
       <c r="G18">
-        <v>0.0008440323321205482</v>
+        <v>5.054604407756301</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07721189074995749</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01836564291914389</v>
       </c>
       <c r="J18">
-        <v>0.2484372116566789</v>
+        <v>2.655765270133031</v>
       </c>
       <c r="K18">
-        <v>5.053353842601894</v>
+        <v>3.658178441823651</v>
       </c>
       <c r="L18">
-        <v>0.01927924939734638</v>
+        <v>0.1482487934307102</v>
       </c>
       <c r="M18">
-        <v>0.9199133587898487</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06859609946527812</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>10.55149949033279</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1841231136597372</v>
+        <v>0.1045645022257453</v>
       </c>
       <c r="D19">
-        <v>0.1288976705687048</v>
+        <v>0.03608862653179301</v>
       </c>
       <c r="E19">
-        <v>0.02287751266051696</v>
+        <v>0.06461928509719961</v>
       </c>
       <c r="F19">
-        <v>9.838195940425123</v>
+        <v>5.21507178929204</v>
       </c>
       <c r="G19">
-        <v>0.0008451554187949865</v>
+        <v>5.397137242653628</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03320121861080594</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02014895952053664</v>
       </c>
       <c r="J19">
-        <v>0.2473235713677155</v>
+        <v>2.826044097055899</v>
       </c>
       <c r="K19">
-        <v>5.00920230766684</v>
+        <v>3.916377467413326</v>
       </c>
       <c r="L19">
-        <v>0.01922497595632322</v>
+        <v>0.1852595678549136</v>
       </c>
       <c r="M19">
-        <v>0.912521903681899</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09122472558104633</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>10.46716465870099</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1891689973542441</v>
+        <v>0.1152514252533994</v>
       </c>
       <c r="D20">
-        <v>0.1339234416488324</v>
+        <v>0.03289594150383834</v>
       </c>
       <c r="E20">
-        <v>0.02288721317532794</v>
+        <v>0.0860880009399807</v>
       </c>
       <c r="F20">
-        <v>10.13620716151888</v>
+        <v>6.015755612271619</v>
       </c>
       <c r="G20">
-        <v>0.0008401023673731514</v>
+        <v>6.209027552810369</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01279809981304325</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02817223232790589</v>
       </c>
       <c r="J20">
-        <v>0.2523717642842342</v>
+        <v>3.223690796215863</v>
       </c>
       <c r="K20">
-        <v>5.209266168619251</v>
+        <v>4.513596044724693</v>
       </c>
       <c r="L20">
-        <v>0.01947091020314318</v>
+        <v>0.2648455766955848</v>
       </c>
       <c r="M20">
-        <v>0.9460279846120017</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1431237771634812</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>10.84659223998074</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.206849570162035</v>
+        <v>0.1312413480088939</v>
       </c>
       <c r="D21">
-        <v>0.1514033381077411</v>
+        <v>0.03584648048495964</v>
       </c>
       <c r="E21">
-        <v>0.0229642912362209</v>
+        <v>0.09686989686521663</v>
       </c>
       <c r="F21">
-        <v>11.17405744286174</v>
+        <v>6.771254762880318</v>
       </c>
       <c r="G21">
-        <v>0.0008231074519028493</v>
+        <v>7.017179383887083</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0223237381870498</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0436052507986604</v>
       </c>
       <c r="J21">
-        <v>0.2700408361821758</v>
+        <v>3.611540863029802</v>
       </c>
       <c r="K21">
-        <v>5.908130854815624</v>
+        <v>5.081512821431801</v>
       </c>
       <c r="L21">
-        <v>0.02033050427024463</v>
+        <v>0.3025816080359576</v>
       </c>
       <c r="M21">
-        <v>1.06330657364667</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1619798601828464</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.11986155709377</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2190310424690267</v>
+        <v>0.1421367374501692</v>
       </c>
       <c r="D22">
-        <v>0.1633607891563429</v>
+        <v>0.0381445037554009</v>
       </c>
       <c r="E22">
-        <v>0.02305009618955367</v>
+        <v>0.103094489803917</v>
       </c>
       <c r="F22">
-        <v>11.88451880912277</v>
+        <v>7.255085933479137</v>
       </c>
       <c r="G22">
-        <v>0.0008119410582439758</v>
+        <v>7.537651265592444</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02977785047751524</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05509745259968835</v>
       </c>
       <c r="J22">
-        <v>0.2822051525108975</v>
+        <v>3.861199896618928</v>
       </c>
       <c r="K22">
-        <v>6.388264474608718</v>
+        <v>5.447578079184211</v>
       </c>
       <c r="L22">
-        <v>0.02092198751632424</v>
+        <v>0.3244798203969665</v>
       </c>
       <c r="M22">
-        <v>1.144054115061252</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1713269469703818</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.95085643057945</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2124663147221213</v>
+        <v>0.136575798733638</v>
       </c>
       <c r="D23">
-        <v>0.1569236630738828</v>
+        <v>0.03704178344066378</v>
       </c>
       <c r="E23">
-        <v>0.02300089821758533</v>
+        <v>0.09987400874017816</v>
       </c>
       <c r="F23">
-        <v>11.50204238433867</v>
+        <v>7.009224528415018</v>
       </c>
       <c r="G23">
-        <v>0.0008179094620014768</v>
+        <v>7.273727228163921</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02575591140816291</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04871446557317327</v>
       </c>
       <c r="J23">
-        <v>0.275650128120148</v>
+        <v>3.73479966803518</v>
       </c>
       <c r="K23">
-        <v>6.129620305255344</v>
+        <v>5.263977695766869</v>
       </c>
       <c r="L23">
-        <v>0.02060323849513246</v>
+        <v>0.3134547616488206</v>
       </c>
       <c r="M23">
-        <v>1.100540479539077</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.165922985359984</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.50744471934257</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1888893609106645</v>
+        <v>0.1159890558331327</v>
       </c>
       <c r="D24">
-        <v>0.1336454246253425</v>
+        <v>0.03274761809393567</v>
       </c>
       <c r="E24">
-        <v>0.02288651837074429</v>
+        <v>0.08777282928358332</v>
       </c>
       <c r="F24">
-        <v>10.1197155527681</v>
+        <v>6.069153638233615</v>
       </c>
       <c r="G24">
-        <v>0.0008403798151771379</v>
+        <v>6.263521775796903</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01298749283284939</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02810897822501168</v>
       </c>
       <c r="J24">
-        <v>0.2520920843132473</v>
+        <v>3.25076132510037</v>
       </c>
       <c r="K24">
-        <v>5.198187317065219</v>
+        <v>4.557079857372827</v>
       </c>
       <c r="L24">
-        <v>0.01945729062493839</v>
+        <v>0.2712951592975159</v>
       </c>
       <c r="M24">
-        <v>0.9441716671539169</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1464707323169065</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>10.82576172529139</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1656339884518871</v>
+        <v>0.09538517835354732</v>
       </c>
       <c r="D25">
-        <v>0.1102757125979679</v>
+        <v>0.02826384619529776</v>
       </c>
       <c r="E25">
-        <v>0.02290143083728591</v>
+        <v>0.07517434320815752</v>
       </c>
       <c r="F25">
-        <v>8.736930508525916</v>
+        <v>5.076125250050296</v>
       </c>
       <c r="G25">
-        <v>0.0008646448596390401</v>
+        <v>5.196115308127503</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003935689485462746</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01216183027822559</v>
       </c>
       <c r="J25">
-        <v>0.2287871462653825</v>
+        <v>2.73959396232334</v>
       </c>
       <c r="K25">
-        <v>4.272649068224723</v>
+        <v>3.808810435224729</v>
       </c>
       <c r="L25">
-        <v>0.01831914439880933</v>
+        <v>0.2270184488285807</v>
       </c>
       <c r="M25">
-        <v>0.7894977468804143</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1260805052015783</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>9.00683856119241</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08182454940132544</v>
+        <v>0.07218349927403267</v>
       </c>
       <c r="D2">
-        <v>0.02533328930357825</v>
+        <v>0.01902773504600219</v>
       </c>
       <c r="E2">
-        <v>0.06639806851095997</v>
+        <v>0.05809582459069773</v>
       </c>
       <c r="F2">
-        <v>4.387470551542748</v>
+        <v>3.408981692629936</v>
       </c>
       <c r="G2">
-        <v>4.456859884884437</v>
+        <v>3.336252625731277</v>
       </c>
       <c r="H2">
-        <v>0.0005998645115776746</v>
+        <v>0.0002062706689405225</v>
       </c>
       <c r="I2">
-        <v>0.004284221001693123</v>
+        <v>0.003177040361014072</v>
       </c>
       <c r="J2">
-        <v>2.386376533931298</v>
+        <v>1.907763395297025</v>
       </c>
       <c r="K2">
-        <v>3.29430541181604</v>
+        <v>2.379465013015434</v>
       </c>
       <c r="L2">
-        <v>0.1966450046327424</v>
+        <v>0.9670910221900186</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8296514657684071</v>
       </c>
       <c r="N2">
-        <v>0.1104819400747274</v>
+        <v>0.1459232761187863</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.663121664604034</v>
+        <v>0.1562790644380954</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>7.663121664602784</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07262598916291907</v>
+        <v>0.06230629752291605</v>
       </c>
       <c r="D3">
-        <v>0.0232015839445836</v>
+        <v>0.01839161451892224</v>
       </c>
       <c r="E3">
-        <v>0.06038726921553028</v>
+        <v>0.05363773061147548</v>
       </c>
       <c r="F3">
-        <v>3.908655432146588</v>
+        <v>3.064724156013227</v>
       </c>
       <c r="G3">
-        <v>3.941906058933256</v>
+        <v>2.974980664557876</v>
       </c>
       <c r="H3">
-        <v>7.026512119256978E-06</v>
+        <v>6.270411421915867E-05</v>
       </c>
       <c r="I3">
-        <v>0.001367502881596927</v>
+        <v>0.001227912066742665</v>
       </c>
       <c r="J3">
-        <v>2.140171505158065</v>
+        <v>1.727583627992487</v>
       </c>
       <c r="K3">
-        <v>2.932511442898146</v>
+        <v>2.141645018732419</v>
       </c>
       <c r="L3">
-        <v>0.1753600525486902</v>
+        <v>0.8977549931113629</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7199827512849879</v>
       </c>
       <c r="N3">
-        <v>0.1006048473441936</v>
+        <v>0.1321534859479527</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0.1418439848031028</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>6.74968365211538</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06710514387993882</v>
+        <v>0.05645971590672616</v>
       </c>
       <c r="D4">
-        <v>0.0218953333342391</v>
+        <v>0.01799967497388444</v>
       </c>
       <c r="E4">
-        <v>0.05671728981401358</v>
+        <v>0.0508946782101809</v>
       </c>
       <c r="F4">
-        <v>3.616124432979035</v>
+        <v>2.853286502329496</v>
       </c>
       <c r="G4">
-        <v>3.627178227483398</v>
+        <v>2.7534039713818</v>
       </c>
       <c r="H4">
-        <v>0.0003914574175221119</v>
+        <v>0.0004858657694724045</v>
       </c>
       <c r="I4">
-        <v>0.000550089382547192</v>
+        <v>0.0006440883349210225</v>
       </c>
       <c r="J4">
-        <v>1.989770702121518</v>
+        <v>1.616420181441356</v>
       </c>
       <c r="K4">
-        <v>2.711050665348495</v>
+        <v>1.995092870056581</v>
       </c>
       <c r="L4">
-        <v>0.1623285517428101</v>
+        <v>0.8539981513035571</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6540678899497649</v>
       </c>
       <c r="N4">
-        <v>0.0946096712442781</v>
+        <v>0.1236521364739005</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0.1330846905834449</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>6.187481969423061</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06481207330397254</v>
+        <v>0.05422498481836868</v>
       </c>
       <c r="D5">
-        <v>0.02133360530730855</v>
+        <v>0.01782780947369744</v>
       </c>
       <c r="E5">
-        <v>0.05519880670637001</v>
+        <v>0.0497537294157322</v>
       </c>
       <c r="F5">
-        <v>3.494154860117646</v>
+        <v>2.764615056254755</v>
       </c>
       <c r="G5">
-        <v>3.495802225928088</v>
+        <v>2.660428358302084</v>
       </c>
       <c r="H5">
-        <v>0.000726837176260986</v>
+        <v>0.000782214065210507</v>
       </c>
       <c r="I5">
-        <v>0.0005077673943336691</v>
+        <v>0.0006274747654178014</v>
       </c>
       <c r="J5">
-        <v>1.926945410768553</v>
+        <v>1.569589774003106</v>
       </c>
       <c r="K5">
-        <v>2.618049221516642</v>
+        <v>1.93298942129411</v>
       </c>
       <c r="L5">
-        <v>0.1568615861967189</v>
+        <v>0.8349763130145931</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6267615001887492</v>
       </c>
       <c r="N5">
-        <v>0.09227655306443339</v>
+        <v>0.1200536401178738</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0.1296541254349464</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>5.958052239810286</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0643506523207602</v>
+        <v>0.053979915955086</v>
       </c>
       <c r="D6">
-        <v>0.02120447221308908</v>
+        <v>0.01778517749566078</v>
       </c>
       <c r="E6">
-        <v>0.05491539818993196</v>
+        <v>0.04953921126939242</v>
       </c>
       <c r="F6">
-        <v>3.47019647077849</v>
+        <v>2.746885689083072</v>
       </c>
       <c r="G6">
-        <v>3.469850043450606</v>
+        <v>2.641695760842254</v>
       </c>
       <c r="H6">
-        <v>0.0007977043637876768</v>
+        <v>0.00084257189945669</v>
       </c>
       <c r="I6">
-        <v>0.0006000912837498262</v>
+        <v>0.0007365468349913584</v>
       </c>
       <c r="J6">
-        <v>1.914460553747716</v>
+        <v>1.560111296597455</v>
       </c>
       <c r="K6">
-        <v>2.599108767602402</v>
+        <v>1.919945610055763</v>
       </c>
       <c r="L6">
-        <v>0.1557587486471732</v>
+        <v>0.8307138370767575</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6212851413387668</v>
       </c>
       <c r="N6">
-        <v>0.09200712469497319</v>
+        <v>0.1193092713559025</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0.129227702540895</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5.919936152110608</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06684695509197791</v>
+        <v>0.05663658025520846</v>
       </c>
       <c r="D7">
-        <v>0.02178897181584816</v>
+        <v>0.01792651605795292</v>
       </c>
       <c r="E7">
-        <v>0.05661060195065915</v>
+        <v>0.05084409145029234</v>
       </c>
       <c r="F7">
-        <v>3.604272530592596</v>
+        <v>2.839098662579801</v>
       </c>
       <c r="G7">
-        <v>3.614013741877784</v>
+        <v>2.749997725737728</v>
       </c>
       <c r="H7">
-        <v>0.000404502251065697</v>
+        <v>0.0005009439390080139</v>
       </c>
       <c r="I7">
-        <v>0.0007598796417287446</v>
+        <v>0.0009000948096957728</v>
       </c>
       <c r="J7">
-        <v>1.98327083691737</v>
+        <v>1.595363472622665</v>
       </c>
       <c r="K7">
-        <v>2.700185688863328</v>
+        <v>1.983414846533634</v>
       </c>
       <c r="L7">
-        <v>0.1617188792596309</v>
+        <v>0.8494612689537604</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6498229346911941</v>
       </c>
       <c r="N7">
-        <v>0.09489884354948686</v>
+        <v>0.1231417080604942</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0.1333915979335742</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>6.184389112219776</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07831094645916892</v>
+        <v>0.06874280334302796</v>
       </c>
       <c r="D8">
-        <v>0.02446311662917822</v>
+        <v>0.01865337949306145</v>
       </c>
       <c r="E8">
-        <v>0.06420290298383691</v>
+        <v>0.05657985420061351</v>
       </c>
       <c r="F8">
-        <v>4.208302791513489</v>
+        <v>3.263366478510449</v>
       </c>
       <c r="G8">
-        <v>4.263625513450421</v>
+        <v>3.222592801063115</v>
       </c>
       <c r="H8">
-        <v>0.0002227956969864664</v>
+        <v>3.962490285536191E-05</v>
       </c>
       <c r="I8">
-        <v>0.00327465477693778</v>
+        <v>0.002630858177462336</v>
       </c>
       <c r="J8">
-        <v>2.293707953121014</v>
+        <v>1.787042160666061</v>
       </c>
       <c r="K8">
-        <v>3.156465596380698</v>
+        <v>2.276320625788273</v>
       </c>
       <c r="L8">
-        <v>0.1885703372094767</v>
+        <v>0.9352731677245743</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7836955779137611</v>
       </c>
       <c r="N8">
-        <v>0.1074883659509211</v>
+        <v>0.140441788247287</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0.1516818955900163</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>7.348453399592813</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1025916069075006</v>
+        <v>0.09438659803798544</v>
       </c>
       <c r="D9">
-        <v>0.02994765108816466</v>
+        <v>0.02026335159046866</v>
       </c>
       <c r="E9">
-        <v>0.0795371886464995</v>
+        <v>0.06785110693895113</v>
       </c>
       <c r="F9">
-        <v>5.427440446364557</v>
+        <v>4.128984681915796</v>
       </c>
       <c r="G9">
-        <v>5.574604782314339</v>
+        <v>4.145165527180239</v>
       </c>
       <c r="H9">
-        <v>0.006489850288637244</v>
+        <v>0.003569589388014549</v>
       </c>
       <c r="I9">
-        <v>0.01659777788936534</v>
+        <v>0.01103456282946702</v>
       </c>
       <c r="J9">
-        <v>2.921142309375909</v>
+        <v>2.224476728643992</v>
       </c>
       <c r="K9">
-        <v>4.077311460301132</v>
+        <v>2.873422018185778</v>
       </c>
       <c r="L9">
-        <v>0.2428270310994307</v>
+        <v>1.104354546072329</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.067735220358543</v>
       </c>
       <c r="N9">
-        <v>0.1322927795472921</v>
+        <v>0.1750943649491887</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0.1879322044839427</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>9.620230281550789</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1209844460211222</v>
+        <v>0.1145068600051076</v>
       </c>
       <c r="D10">
-        <v>0.03439501328881533</v>
+        <v>0.02149176429747435</v>
       </c>
       <c r="E10">
-        <v>0.08897758871857953</v>
+        <v>0.07461427150412447</v>
       </c>
       <c r="F10">
-        <v>6.27569081957094</v>
+        <v>4.692975796954272</v>
       </c>
       <c r="G10">
-        <v>6.490820034371779</v>
+        <v>4.824664401022346</v>
       </c>
       <c r="H10">
-        <v>0.0158007362324124</v>
+        <v>0.009228590227941424</v>
       </c>
       <c r="I10">
-        <v>0.03256201154271476</v>
+        <v>0.02086947266888384</v>
       </c>
       <c r="J10">
-        <v>3.35903941631625</v>
+        <v>2.429134297431631</v>
       </c>
       <c r="K10">
-        <v>4.715189259244397</v>
+        <v>3.258538568539905</v>
       </c>
       <c r="L10">
-        <v>0.2756108215023616</v>
+        <v>1.203999896609588</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.26396089552081</v>
       </c>
       <c r="N10">
-        <v>0.1459676825817056</v>
+        <v>0.1944171589359129</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0.2081673903437036</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>11.28258838837513</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1235453416052756</v>
+        <v>0.1249801288063708</v>
       </c>
       <c r="D11">
-        <v>0.03976075222927733</v>
+        <v>0.02361167115576279</v>
       </c>
       <c r="E11">
-        <v>0.07664962729186797</v>
+        <v>0.06418400263896551</v>
       </c>
       <c r="F11">
-        <v>6.138711620542466</v>
+        <v>4.515706599810869</v>
       </c>
       <c r="G11">
-        <v>6.386144671177021</v>
+        <v>4.826923624977439</v>
       </c>
       <c r="H11">
-        <v>0.03547424256116827</v>
+        <v>0.02826020179976041</v>
       </c>
       <c r="I11">
-        <v>0.03682664814818359</v>
+        <v>0.02366200247481576</v>
       </c>
       <c r="J11">
-        <v>3.300995219254389</v>
+        <v>2.188951254596503</v>
       </c>
       <c r="K11">
-        <v>4.612067358102763</v>
+        <v>3.132141387082143</v>
       </c>
       <c r="L11">
-        <v>0.2283209902386361</v>
+        <v>1.140490359560772</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.234684097570749</v>
       </c>
       <c r="N11">
-        <v>0.1112841967495086</v>
+        <v>0.1578931636801855</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0.1606394258651846</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>12.03742316731751</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1226235956060187</v>
+        <v>0.1295256764415527</v>
       </c>
       <c r="D12">
-        <v>0.0438275837499873</v>
+        <v>0.02552838757036824</v>
       </c>
       <c r="E12">
-        <v>0.06711952714821567</v>
+        <v>0.05649441760663887</v>
       </c>
       <c r="F12">
-        <v>5.858927981788355</v>
+        <v>4.27865359183707</v>
       </c>
       <c r="G12">
-        <v>6.120576381605133</v>
+        <v>4.670949094551645</v>
       </c>
       <c r="H12">
-        <v>0.07336288304878735</v>
+        <v>0.06641332978716008</v>
       </c>
       <c r="I12">
-        <v>0.0364479018007291</v>
+        <v>0.02347308446633178</v>
       </c>
       <c r="J12">
-        <v>3.167309177470202</v>
+        <v>2.012106943331389</v>
       </c>
       <c r="K12">
-        <v>4.405052161319134</v>
+        <v>2.96943709328653</v>
       </c>
       <c r="L12">
-        <v>0.1889842008044909</v>
+        <v>1.075937808941234</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.177363597902556</v>
       </c>
       <c r="N12">
-        <v>0.08561144698962408</v>
+        <v>0.1302896281502335</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0.122981183067381</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>12.32306348037548</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1185789032964228</v>
+        <v>0.1307607601496841</v>
       </c>
       <c r="D13">
-        <v>0.04688550119865198</v>
+        <v>0.02757886330369885</v>
       </c>
       <c r="E13">
-        <v>0.05910801724780423</v>
+        <v>0.05045820016870906</v>
       </c>
       <c r="F13">
-        <v>5.439243399959338</v>
+        <v>3.980279400053149</v>
       </c>
       <c r="G13">
-        <v>5.699915578049399</v>
+        <v>4.354208331065081</v>
       </c>
       <c r="H13">
-        <v>0.1267818791453124</v>
+        <v>0.1208352286066088</v>
       </c>
       <c r="I13">
-        <v>0.03263522029353805</v>
+        <v>0.02130474390287418</v>
       </c>
       <c r="J13">
-        <v>2.959732078788818</v>
+        <v>1.895005673473037</v>
       </c>
       <c r="K13">
-        <v>4.092634540760514</v>
+        <v>2.76567925264844</v>
       </c>
       <c r="L13">
-        <v>0.1530218594440669</v>
+        <v>1.004746105049293</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.094315425853765</v>
       </c>
       <c r="N13">
-        <v>0.06606419965559951</v>
+        <v>0.1074333680035124</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0.09169975954402787</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>12.26155457991888</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.114481346556456</v>
+        <v>0.1303809290711939</v>
       </c>
       <c r="D14">
-        <v>0.04853239490238792</v>
+        <v>0.02917256603579332</v>
       </c>
       <c r="E14">
-        <v>0.05460781680275772</v>
+        <v>0.04744046115805545</v>
       </c>
       <c r="F14">
-        <v>5.083239394429512</v>
+        <v>3.741837566700696</v>
       </c>
       <c r="G14">
-        <v>5.335953054214031</v>
+        <v>4.062077761020987</v>
       </c>
       <c r="H14">
-        <v>0.1739852057256854</v>
+        <v>0.1689852122437259</v>
       </c>
       <c r="I14">
-        <v>0.02872472513073632</v>
+        <v>0.01909088779373747</v>
       </c>
       <c r="J14">
-        <v>2.781243915702476</v>
+        <v>1.834257848286825</v>
       </c>
       <c r="K14">
-        <v>3.826491009278641</v>
+        <v>2.602648109993865</v>
       </c>
       <c r="L14">
-        <v>0.1305207392973138</v>
+        <v>0.950885467609254</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.024248431134566</v>
       </c>
       <c r="N14">
-        <v>0.0562416513575883</v>
+        <v>0.09444793699955056</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0.07392240423667218</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>12.06092695796559</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1127721992975452</v>
+        <v>0.129763978632127</v>
       </c>
       <c r="D15">
-        <v>0.0486078855346932</v>
+        <v>0.02954453483337005</v>
       </c>
       <c r="E15">
-        <v>0.05347910745926665</v>
+        <v>0.04674901427231459</v>
       </c>
       <c r="F15">
-        <v>4.964193764518228</v>
+        <v>3.66682812623921</v>
       </c>
       <c r="G15">
-        <v>5.211344998243192</v>
+        <v>3.956527433474122</v>
       </c>
       <c r="H15">
-        <v>0.1856188285667315</v>
+        <v>0.1809957656412564</v>
       </c>
       <c r="I15">
-        <v>0.02719588084395852</v>
+        <v>0.01826793748007294</v>
       </c>
       <c r="J15">
-        <v>2.720603773170808</v>
+        <v>1.826296985871721</v>
       </c>
       <c r="K15">
-        <v>3.73656558540614</v>
+        <v>2.55082990275821</v>
       </c>
       <c r="L15">
-        <v>0.1248806003173648</v>
+        <v>0.9349287474394146</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.000606250779171</v>
       </c>
       <c r="N15">
-        <v>0.05427750208415105</v>
+        <v>0.09140614542304704</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0.07010074134109701</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>11.93801081193845</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1056907598020995</v>
+        <v>0.1224755630187957</v>
       </c>
       <c r="D16">
-        <v>0.04579876184311615</v>
+        <v>0.02917426088518127</v>
       </c>
       <c r="E16">
-        <v>0.05134953527393327</v>
+        <v>0.04527822523072178</v>
       </c>
       <c r="F16">
-        <v>4.69134518814036</v>
+        <v>3.526232669280517</v>
       </c>
       <c r="G16">
-        <v>4.908617355063711</v>
+        <v>3.672079035360582</v>
       </c>
       <c r="H16">
-        <v>0.1694141810151848</v>
+        <v>0.166170829088756</v>
       </c>
       <c r="I16">
-        <v>0.02122388945775278</v>
+        <v>0.01474494064676435</v>
       </c>
       <c r="J16">
-        <v>2.577050621330727</v>
+        <v>1.885879015965543</v>
       </c>
       <c r="K16">
-        <v>3.529896780680829</v>
+        <v>2.454898682733486</v>
       </c>
       <c r="L16">
-        <v>0.1195292937685295</v>
+        <v>0.9149976195357823</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9455752105334483</v>
       </c>
       <c r="N16">
-        <v>0.05326270216419893</v>
+        <v>0.08859518808296407</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0.06940225001172351</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>11.23323027560713</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1023456312625699</v>
+        <v>0.1167644862782353</v>
       </c>
       <c r="D17">
-        <v>0.04278648095512239</v>
+        <v>0.02781939248484733</v>
       </c>
       <c r="E17">
-        <v>0.05179364923261565</v>
+        <v>0.04539203635945821</v>
       </c>
       <c r="F17">
-        <v>4.6684359906194</v>
+        <v>3.537783821347233</v>
       </c>
       <c r="G17">
-        <v>4.867065442957426</v>
+        <v>3.616648323492228</v>
       </c>
       <c r="H17">
-        <v>0.1301302178802359</v>
+        <v>0.1274358607588795</v>
       </c>
       <c r="I17">
-        <v>0.01872886126973583</v>
+        <v>0.01322252028822746</v>
       </c>
       <c r="J17">
-        <v>2.560510814014663</v>
+        <v>1.945312733864569</v>
       </c>
       <c r="K17">
-        <v>3.510519369659562</v>
+        <v>2.462678118031747</v>
       </c>
       <c r="L17">
-        <v>0.1264109361561481</v>
+        <v>0.9268189365577229</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9382152285683958</v>
       </c>
       <c r="N17">
-        <v>0.0569899694870859</v>
+        <v>0.09261522155560087</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0.07746487702281257</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>10.80051555282938</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1020605506955636</v>
+        <v>0.1117507309932506</v>
       </c>
       <c r="D18">
-        <v>0.03948416160605461</v>
+        <v>0.02580258058742047</v>
       </c>
       <c r="E18">
-        <v>0.05589083515371751</v>
+        <v>0.04820963683226376</v>
       </c>
       <c r="F18">
-        <v>4.866502935685503</v>
+        <v>3.699206512964707</v>
       </c>
       <c r="G18">
-        <v>5.054604407756301</v>
+        <v>3.743196369291695</v>
       </c>
       <c r="H18">
-        <v>0.07721189074995749</v>
+        <v>0.07451770125300072</v>
       </c>
       <c r="I18">
-        <v>0.01836564291914389</v>
+        <v>0.01281922925743029</v>
       </c>
       <c r="J18">
-        <v>2.655765270133031</v>
+        <v>2.046529921979243</v>
       </c>
       <c r="K18">
-        <v>3.658178441823651</v>
+        <v>2.574486889935756</v>
       </c>
       <c r="L18">
-        <v>0.1482487934307102</v>
+        <v>0.9728276309507038</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9758314801099033</v>
       </c>
       <c r="N18">
-        <v>0.06859609946527812</v>
+        <v>0.1064311943313925</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0.09750244271023689</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>10.55149949033279</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1045645022257453</v>
+        <v>0.1089127529199985</v>
       </c>
       <c r="D19">
-        <v>0.03608862653179301</v>
+        <v>0.02357051122653786</v>
       </c>
       <c r="E19">
-        <v>0.06461928509719961</v>
+        <v>0.05494029800893419</v>
       </c>
       <c r="F19">
-        <v>5.21507178929204</v>
+        <v>3.962790103886505</v>
       </c>
       <c r="G19">
-        <v>5.397137242653628</v>
+        <v>3.988000968990292</v>
       </c>
       <c r="H19">
-        <v>0.03320121861080594</v>
+        <v>0.03002642694407598</v>
       </c>
       <c r="I19">
-        <v>0.02014895952053664</v>
+        <v>0.01390550892458364</v>
       </c>
       <c r="J19">
-        <v>2.826044097055899</v>
+        <v>2.18020013880718</v>
       </c>
       <c r="K19">
-        <v>3.916377467413326</v>
+        <v>2.754289009045678</v>
       </c>
       <c r="L19">
-        <v>0.1852595678549136</v>
+        <v>1.040310893778937</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.04386321463808</v>
       </c>
       <c r="N19">
-        <v>0.09122472558104633</v>
+        <v>0.1316314493679265</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0.1317889193622577</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>10.46716465870099</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1152514252533994</v>
+        <v>0.110808845908295</v>
       </c>
       <c r="D20">
-        <v>0.03289594150383834</v>
+        <v>0.02116390357637066</v>
       </c>
       <c r="E20">
-        <v>0.0860880009399807</v>
+        <v>0.07240741539107809</v>
       </c>
       <c r="F20">
-        <v>6.015755612271619</v>
+        <v>4.534135230842423</v>
       </c>
       <c r="G20">
-        <v>6.209027552810369</v>
+        <v>4.589267583465528</v>
       </c>
       <c r="H20">
-        <v>0.01279809981304325</v>
+        <v>0.007433242925636296</v>
       </c>
       <c r="I20">
-        <v>0.02817223232790589</v>
+        <v>0.01868143922809473</v>
       </c>
       <c r="J20">
-        <v>3.223690796215863</v>
+        <v>2.417136350843123</v>
       </c>
       <c r="K20">
-        <v>4.513596044724693</v>
+        <v>3.144930182467547</v>
       </c>
       <c r="L20">
-        <v>0.2648455766955848</v>
+        <v>1.173578279074221</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.207005312238138</v>
       </c>
       <c r="N20">
-        <v>0.1431237771634812</v>
+        <v>0.1880530080924956</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0.2038931758990401</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>10.84659223998074</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1312413480088939</v>
+        <v>0.1237201462801281</v>
       </c>
       <c r="D21">
-        <v>0.03584648048495964</v>
+        <v>0.02139439721177183</v>
       </c>
       <c r="E21">
-        <v>0.09686989686521663</v>
+        <v>0.08120319788506336</v>
       </c>
       <c r="F21">
-        <v>6.771254762880318</v>
+        <v>4.948023792173956</v>
       </c>
       <c r="G21">
-        <v>7.017179383887083</v>
+        <v>5.322708409071993</v>
       </c>
       <c r="H21">
-        <v>0.0223237381870498</v>
+        <v>0.0129202021287167</v>
       </c>
       <c r="I21">
-        <v>0.0436052507986604</v>
+        <v>0.02752961275234433</v>
       </c>
       <c r="J21">
-        <v>3.611540863029802</v>
+        <v>2.315062417638387</v>
       </c>
       <c r="K21">
-        <v>5.081512821431801</v>
+        <v>3.425730843027026</v>
       </c>
       <c r="L21">
-        <v>0.3025816080359576</v>
+        <v>1.243551038474564</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.354224516545514</v>
       </c>
       <c r="N21">
-        <v>0.1619798601828464</v>
+        <v>0.2107456330174884</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0.2298857158409788</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>12.11986155709377</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1421367374501692</v>
+        <v>0.1321720027275646</v>
       </c>
       <c r="D22">
-        <v>0.0381445037554009</v>
+        <v>0.02177321803626953</v>
       </c>
       <c r="E22">
-        <v>0.103094489803917</v>
+        <v>0.08630302188807448</v>
       </c>
       <c r="F22">
-        <v>7.255085933479137</v>
+        <v>5.200103585548277</v>
       </c>
       <c r="G22">
-        <v>7.537651265592444</v>
+        <v>5.812358722385284</v>
       </c>
       <c r="H22">
-        <v>0.02977785047751524</v>
+        <v>0.01720431723778826</v>
       </c>
       <c r="I22">
-        <v>0.05509745259968835</v>
+        <v>0.0338213414754982</v>
       </c>
       <c r="J22">
-        <v>3.861199896618928</v>
+        <v>2.226818677910245</v>
       </c>
       <c r="K22">
-        <v>5.447578079184211</v>
+        <v>3.598242346349878</v>
       </c>
       <c r="L22">
-        <v>0.3244798203969665</v>
+        <v>1.284600096970735</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.447494603190975</v>
       </c>
       <c r="N22">
-        <v>0.1713269469703818</v>
+        <v>0.2232426720138179</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0.2428268270607958</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>12.95085643057945</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.136575798733638</v>
+        <v>0.1275302775239666</v>
       </c>
       <c r="D23">
-        <v>0.03704178344066378</v>
+        <v>0.02163918767333683</v>
       </c>
       <c r="E23">
-        <v>0.09987400874017816</v>
+        <v>0.08355152561451362</v>
       </c>
       <c r="F23">
-        <v>7.009224528415018</v>
+        <v>5.08845288260855</v>
       </c>
       <c r="G23">
-        <v>7.273727228163921</v>
+        <v>5.541823074765716</v>
       </c>
       <c r="H23">
-        <v>0.02575591140816291</v>
+        <v>0.01492998328192174</v>
       </c>
       <c r="I23">
-        <v>0.04871446557317327</v>
+        <v>0.03021980742441421</v>
       </c>
       <c r="J23">
-        <v>3.73479966803518</v>
+        <v>2.317671131282907</v>
       </c>
       <c r="K23">
-        <v>5.263977695766869</v>
+        <v>3.524336042189304</v>
       </c>
       <c r="L23">
-        <v>0.3134547616488206</v>
+        <v>1.269213131926648</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.404849237900294</v>
       </c>
       <c r="N23">
-        <v>0.165922985359984</v>
+        <v>0.2172211168869111</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0.2355086785174763</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>12.50744471934257</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1159890558331327</v>
+        <v>0.1097252194148695</v>
       </c>
       <c r="D24">
-        <v>0.03274761809393567</v>
+        <v>0.02105742743856531</v>
       </c>
       <c r="E24">
-        <v>0.08777282928358332</v>
+        <v>0.07382001965456197</v>
       </c>
       <c r="F24">
-        <v>6.069153638233615</v>
+        <v>4.575807478393415</v>
       </c>
       <c r="G24">
-        <v>6.263521775796903</v>
+        <v>4.62858393641244</v>
       </c>
       <c r="H24">
-        <v>0.01298749283284939</v>
+        <v>0.007511969431017507</v>
       </c>
       <c r="I24">
-        <v>0.02810897822501168</v>
+        <v>0.01836565310743499</v>
       </c>
       <c r="J24">
-        <v>3.25076132510037</v>
+        <v>2.440621692016123</v>
       </c>
       <c r="K24">
-        <v>4.557079857372827</v>
+        <v>3.176811809658091</v>
       </c>
       <c r="L24">
-        <v>0.2712951592975159</v>
+        <v>1.18567679577545</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.218945335904721</v>
       </c>
       <c r="N24">
-        <v>0.1464707323169065</v>
+        <v>0.1928707931363789</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0.20841483657113</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>10.82576172529139</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09538517835354732</v>
+        <v>0.0880481245588598</v>
       </c>
       <c r="D25">
-        <v>0.02826384619529776</v>
+        <v>0.01980118863392555</v>
       </c>
       <c r="E25">
-        <v>0.07517434320815752</v>
+        <v>0.06461394322467662</v>
       </c>
       <c r="F25">
-        <v>5.076125250050296</v>
+        <v>3.88616948143337</v>
       </c>
       <c r="G25">
-        <v>5.196115308127503</v>
+        <v>3.868025638879431</v>
       </c>
       <c r="H25">
-        <v>0.003935689485462746</v>
+        <v>0.002061749656225631</v>
       </c>
       <c r="I25">
-        <v>0.01216183027822559</v>
+        <v>0.00850374891516914</v>
       </c>
       <c r="J25">
-        <v>2.73959396232334</v>
+        <v>2.120714501915984</v>
       </c>
       <c r="K25">
-        <v>3.808810435224729</v>
+        <v>2.703277809621753</v>
       </c>
       <c r="L25">
-        <v>0.2270184488285807</v>
+        <v>1.056296819956785</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.9861223282211427</v>
       </c>
       <c r="N25">
-        <v>0.1260805052015783</v>
+        <v>0.1650735439757156</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0.1787825087695651</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>9.00683856119241</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
